--- a/추가피처데이터/투자자별매매동향(수급)/298020.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/298020.xlsx
@@ -1709,43 +1709,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1977,94 +1977,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>142</v>
+        <v>57600</v>
       </c>
       <c r="C6" s="7">
-        <v>138</v>
+        <v>55686</v>
       </c>
       <c r="D6" s="9">
-        <v>4</v>
+        <v>1914</v>
       </c>
       <c r="E6" s="11">
-        <v>203</v>
+        <v>81360</v>
       </c>
       <c r="F6" s="13">
-        <v>203</v>
+        <v>82094</v>
       </c>
       <c r="G6" s="15">
-        <v>0</v>
+        <v>-734</v>
       </c>
       <c r="H6" s="17">
-        <v>100</v>
+        <v>40840</v>
       </c>
       <c r="I6" s="19">
-        <v>105</v>
+        <v>41894</v>
       </c>
       <c r="J6" s="21">
-        <v>-5</v>
+        <v>-1054</v>
       </c>
       <c r="K6" s="23">
-        <v>14</v>
+        <v>5510</v>
       </c>
       <c r="L6" s="25">
-        <v>14</v>
+        <v>5810</v>
       </c>
       <c r="M6" s="27">
-        <v>-1</v>
+        <v>-300</v>
       </c>
       <c r="N6" s="29">
-        <v>14</v>
+        <v>5899</v>
       </c>
       <c r="O6" s="31">
-        <v>9</v>
+        <v>3472</v>
       </c>
       <c r="P6" s="33">
-        <v>6</v>
+        <v>2427</v>
       </c>
       <c r="Q6" s="35">
-        <v>34</v>
+        <v>13779</v>
       </c>
       <c r="R6" s="37">
-        <v>36</v>
+        <v>14289</v>
       </c>
       <c r="S6" s="39">
-        <v>-2</v>
+        <v>-510</v>
       </c>
       <c r="T6" s="41">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="U6" s="43">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="V6" s="45">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="W6" s="47">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="Y6" s="51">
-        <v>0</v>
+        <v>-126</v>
       </c>
       <c r="Z6" s="53">
-        <v>33</v>
+        <v>13412</v>
       </c>
       <c r="AA6" s="55">
-        <v>26</v>
+        <v>10462</v>
       </c>
       <c r="AB6" s="57">
-        <v>7</v>
+        <v>2950</v>
       </c>
       <c r="AC6" s="59">
-        <v>5</v>
+        <v>2121</v>
       </c>
       <c r="AD6" s="61">
-        <v>19</v>
+        <v>7587</v>
       </c>
       <c r="AE6" s="63">
-        <v>-14</v>
+        <v>-5466</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2076,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>2</v>
+        <v>625</v>
       </c>
       <c r="AJ6" s="73">
-        <v>2</v>
+        <v>751</v>
       </c>
       <c r="AK6" s="75">
-        <v>0</v>
+        <v>-126</v>
       </c>
       <c r="AL6" s="77">
-        <v>448</v>
+        <v>180426</v>
       </c>
     </row>
     <row r="7">
@@ -2093,94 +2093,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>130</v>
+        <v>53849</v>
       </c>
       <c r="C7" s="7">
-        <v>132</v>
+        <v>54734</v>
       </c>
       <c r="D7" s="9">
-        <v>-2</v>
+        <v>-885</v>
       </c>
       <c r="E7" s="11">
-        <v>279</v>
+        <v>115321</v>
       </c>
       <c r="F7" s="13">
-        <v>252</v>
+        <v>104639</v>
       </c>
       <c r="G7" s="15">
-        <v>28</v>
+        <v>10682</v>
       </c>
       <c r="H7" s="17">
-        <v>132</v>
+        <v>55464</v>
       </c>
       <c r="I7" s="19">
-        <v>157</v>
+        <v>64997</v>
       </c>
       <c r="J7" s="21">
-        <v>-25</v>
+        <v>-9534</v>
       </c>
       <c r="K7" s="23">
-        <v>17</v>
+        <v>6934</v>
       </c>
       <c r="L7" s="25">
-        <v>22</v>
+        <v>9205</v>
       </c>
       <c r="M7" s="27">
-        <v>-6</v>
+        <v>-2271</v>
       </c>
       <c r="N7" s="29">
-        <v>11</v>
+        <v>4618</v>
       </c>
       <c r="O7" s="31">
-        <v>11</v>
+        <v>4365</v>
       </c>
       <c r="P7" s="33">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="35">
-        <v>42</v>
+        <v>17493</v>
       </c>
       <c r="R7" s="37">
-        <v>48</v>
+        <v>19566</v>
       </c>
       <c r="S7" s="39">
-        <v>-6</v>
+        <v>-2073</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="U7" s="43">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="V7" s="45">
-        <v>0</v>
+        <v>-142</v>
       </c>
       <c r="W7" s="47">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="X7" s="49">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="Y7" s="51">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="Z7" s="53">
-        <v>51</v>
+        <v>21286</v>
       </c>
       <c r="AA7" s="55">
-        <v>60</v>
+        <v>24826</v>
       </c>
       <c r="AB7" s="57">
-        <v>-9</v>
+        <v>-3540</v>
       </c>
       <c r="AC7" s="59">
-        <v>10</v>
+        <v>4413</v>
       </c>
       <c r="AD7" s="61">
-        <v>15</v>
+        <v>6352</v>
       </c>
       <c r="AE7" s="63">
-        <v>-5</v>
+        <v>-1940</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2192,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>4</v>
+        <v>1554</v>
       </c>
       <c r="AJ7" s="73">
-        <v>4</v>
+        <v>1817</v>
       </c>
       <c r="AK7" s="75">
-        <v>0</v>
+        <v>-263</v>
       </c>
       <c r="AL7" s="77">
-        <v>545</v>
+        <v>226188</v>
       </c>
     </row>
     <row r="8">
@@ -2209,94 +2209,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>178</v>
+        <v>77260</v>
       </c>
       <c r="C8" s="7">
-        <v>177</v>
+        <v>77244</v>
       </c>
       <c r="D8" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E8" s="11">
-        <v>303</v>
+        <v>131985</v>
       </c>
       <c r="F8" s="13">
-        <v>360</v>
+        <v>157339</v>
       </c>
       <c r="G8" s="15">
-        <v>-58</v>
+        <v>-25354</v>
       </c>
       <c r="H8" s="17">
-        <v>180</v>
+        <v>78804</v>
       </c>
       <c r="I8" s="19">
-        <v>118</v>
+        <v>51152</v>
       </c>
       <c r="J8" s="21">
-        <v>62</v>
+        <v>27653</v>
       </c>
       <c r="K8" s="23">
-        <v>20</v>
+        <v>8511</v>
       </c>
       <c r="L8" s="25">
-        <v>22</v>
+        <v>9575</v>
       </c>
       <c r="M8" s="27">
-        <v>-3</v>
+        <v>-1064</v>
       </c>
       <c r="N8" s="29">
-        <v>12</v>
+        <v>5156</v>
       </c>
       <c r="O8" s="31">
-        <v>14</v>
+        <v>6035</v>
       </c>
       <c r="P8" s="33">
-        <v>-2</v>
+        <v>-880</v>
       </c>
       <c r="Q8" s="35">
-        <v>45</v>
+        <v>19542</v>
       </c>
       <c r="R8" s="37">
-        <v>36</v>
+        <v>15798</v>
       </c>
       <c r="S8" s="39">
-        <v>8</v>
+        <v>3744</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="U8" s="43">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V8" s="45">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="W8" s="47">
-        <v>1</v>
+        <v>443</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y8" s="51">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="Z8" s="53">
-        <v>87</v>
+        <v>38234</v>
       </c>
       <c r="AA8" s="55">
-        <v>25</v>
+        <v>10895</v>
       </c>
       <c r="AB8" s="57">
-        <v>63</v>
+        <v>27339</v>
       </c>
       <c r="AC8" s="59">
-        <v>15</v>
+        <v>6461</v>
       </c>
       <c r="AD8" s="61">
-        <v>20</v>
+        <v>8600</v>
       </c>
       <c r="AE8" s="63">
-        <v>-5</v>
+        <v>-2139</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>2</v>
+        <v>1059</v>
       </c>
       <c r="AJ8" s="73">
-        <v>8</v>
+        <v>3373</v>
       </c>
       <c r="AK8" s="75">
-        <v>-5</v>
+        <v>-2314</v>
       </c>
       <c r="AL8" s="77">
-        <v>663</v>
+        <v>289108</v>
       </c>
     </row>
     <row r="9">
@@ -2325,94 +2325,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>194</v>
+        <v>85767</v>
       </c>
       <c r="C9" s="7">
-        <v>189</v>
+        <v>84594</v>
       </c>
       <c r="D9" s="9">
-        <v>4</v>
+        <v>1174</v>
       </c>
       <c r="E9" s="11">
-        <v>416</v>
+        <v>185105</v>
       </c>
       <c r="F9" s="13">
-        <v>503</v>
+        <v>224121</v>
       </c>
       <c r="G9" s="15">
-        <v>-87</v>
+        <v>-39016</v>
       </c>
       <c r="H9" s="17">
-        <v>214</v>
+        <v>95620</v>
       </c>
       <c r="I9" s="19">
-        <v>127</v>
+        <v>56007</v>
       </c>
       <c r="J9" s="21">
-        <v>87</v>
+        <v>39613</v>
       </c>
       <c r="K9" s="23">
-        <v>29</v>
+        <v>12928</v>
       </c>
       <c r="L9" s="25">
-        <v>30</v>
+        <v>13478</v>
       </c>
       <c r="M9" s="27">
-        <v>-1</v>
+        <v>-549</v>
       </c>
       <c r="N9" s="29">
-        <v>20</v>
+        <v>8782</v>
       </c>
       <c r="O9" s="31">
-        <v>12</v>
+        <v>5373</v>
       </c>
       <c r="P9" s="33">
-        <v>8</v>
+        <v>3409</v>
       </c>
       <c r="Q9" s="35">
-        <v>52</v>
+        <v>23165</v>
       </c>
       <c r="R9" s="37">
-        <v>31</v>
+        <v>13747</v>
       </c>
       <c r="S9" s="39">
-        <v>21</v>
+        <v>9418</v>
       </c>
       <c r="T9" s="41">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="U9" s="43">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="V9" s="45">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="W9" s="47">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="X9" s="49">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="51">
-        <v>1</v>
+        <v>345</v>
       </c>
       <c r="Z9" s="53">
-        <v>89</v>
+        <v>40150</v>
       </c>
       <c r="AA9" s="55">
-        <v>22</v>
+        <v>9464</v>
       </c>
       <c r="AB9" s="57">
-        <v>68</v>
+        <v>30686</v>
       </c>
       <c r="AC9" s="59">
-        <v>22</v>
+        <v>9792</v>
       </c>
       <c r="AD9" s="61">
-        <v>32</v>
+        <v>13854</v>
       </c>
       <c r="AE9" s="63">
-        <v>-9</v>
+        <v>-4062</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>9</v>
+        <v>4096</v>
       </c>
       <c r="AJ9" s="73">
-        <v>13</v>
+        <v>5867</v>
       </c>
       <c r="AK9" s="75">
-        <v>-4</v>
+        <v>-1771</v>
       </c>
       <c r="AL9" s="77">
-        <v>833</v>
+        <v>370588</v>
       </c>
     </row>
     <row r="10">
@@ -2441,94 +2441,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>201</v>
+        <v>75703</v>
       </c>
       <c r="C10" s="7">
-        <v>201</v>
+        <v>76101</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
+        <v>-398</v>
       </c>
       <c r="E10" s="11">
-        <v>412</v>
+        <v>155886</v>
       </c>
       <c r="F10" s="13">
-        <v>526</v>
+        <v>200254</v>
       </c>
       <c r="G10" s="15">
-        <v>-114</v>
+        <v>-44368</v>
       </c>
       <c r="H10" s="17">
-        <v>232</v>
+        <v>88601</v>
       </c>
       <c r="I10" s="19">
-        <v>117</v>
+        <v>43561</v>
       </c>
       <c r="J10" s="21">
-        <v>115</v>
+        <v>45040</v>
       </c>
       <c r="K10" s="23">
-        <v>32</v>
+        <v>12188</v>
       </c>
       <c r="L10" s="25">
-        <v>19</v>
+        <v>7201</v>
       </c>
       <c r="M10" s="27">
-        <v>12</v>
+        <v>4987</v>
       </c>
       <c r="N10" s="29">
-        <v>18</v>
+        <v>7096</v>
       </c>
       <c r="O10" s="31">
-        <v>9</v>
+        <v>3373</v>
       </c>
       <c r="P10" s="33">
-        <v>10</v>
+        <v>3723</v>
       </c>
       <c r="Q10" s="35">
-        <v>72</v>
+        <v>27163</v>
       </c>
       <c r="R10" s="37">
-        <v>43</v>
+        <v>15815</v>
       </c>
       <c r="S10" s="39">
-        <v>30</v>
+        <v>11349</v>
       </c>
       <c r="T10" s="41">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="U10" s="43">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="V10" s="45">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="W10" s="47">
-        <v>2</v>
+        <v>566</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="51">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="Z10" s="53">
-        <v>92</v>
+        <v>35484</v>
       </c>
       <c r="AA10" s="55">
-        <v>23</v>
+        <v>8487</v>
       </c>
       <c r="AB10" s="57">
-        <v>70</v>
+        <v>26997</v>
       </c>
       <c r="AC10" s="59">
-        <v>15</v>
+        <v>5893</v>
       </c>
       <c r="AD10" s="61">
-        <v>23</v>
+        <v>8409</v>
       </c>
       <c r="AE10" s="63">
-        <v>-7</v>
+        <v>-2516</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>6</v>
+        <v>2399</v>
       </c>
       <c r="AJ10" s="73">
-        <v>7</v>
+        <v>2673</v>
       </c>
       <c r="AK10" s="75">
-        <v>-1</v>
+        <v>-274</v>
       </c>
       <c r="AL10" s="77">
-        <v>851</v>
+        <v>322589</v>
       </c>
     </row>
     <row r="11">
@@ -2557,94 +2557,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>152</v>
+        <v>54461</v>
       </c>
       <c r="C11" s="7">
-        <v>204</v>
+        <v>73012</v>
       </c>
       <c r="D11" s="9">
-        <v>-52</v>
+        <v>-18551</v>
       </c>
       <c r="E11" s="11">
-        <v>377</v>
+        <v>135079</v>
       </c>
       <c r="F11" s="13">
-        <v>411</v>
+        <v>147645</v>
       </c>
       <c r="G11" s="15">
-        <v>-33</v>
+        <v>-12567</v>
       </c>
       <c r="H11" s="17">
-        <v>153</v>
+        <v>55265</v>
       </c>
       <c r="I11" s="19">
-        <v>67</v>
+        <v>23721</v>
       </c>
       <c r="J11" s="21">
-        <v>86</v>
+        <v>31544</v>
       </c>
       <c r="K11" s="23">
-        <v>24</v>
+        <v>8740</v>
       </c>
       <c r="L11" s="25">
-        <v>15</v>
+        <v>5406</v>
       </c>
       <c r="M11" s="27">
-        <v>9</v>
+        <v>3334</v>
       </c>
       <c r="N11" s="29">
-        <v>23</v>
+        <v>8425</v>
       </c>
       <c r="O11" s="31">
-        <v>10</v>
+        <v>3689</v>
       </c>
       <c r="P11" s="33">
-        <v>13</v>
+        <v>4736</v>
       </c>
       <c r="Q11" s="35">
-        <v>64</v>
+        <v>22929</v>
       </c>
       <c r="R11" s="37">
-        <v>12</v>
+        <v>4316</v>
       </c>
       <c r="S11" s="39">
-        <v>51</v>
+        <v>18613</v>
       </c>
       <c r="T11" s="41">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="U11" s="43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="W11" s="47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X11" s="49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="53">
-        <v>30</v>
+        <v>10668</v>
       </c>
       <c r="AA11" s="55">
-        <v>21</v>
+        <v>7312</v>
       </c>
       <c r="AB11" s="57">
-        <v>9</v>
+        <v>3355</v>
       </c>
       <c r="AC11" s="59">
-        <v>12</v>
+        <v>4306</v>
       </c>
       <c r="AD11" s="61">
-        <v>8</v>
+        <v>2931</v>
       </c>
       <c r="AE11" s="63">
-        <v>4</v>
+        <v>1375</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2656,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>5</v>
+        <v>1677</v>
       </c>
       <c r="AJ11" s="73">
-        <v>6</v>
+        <v>2103</v>
       </c>
       <c r="AK11" s="75">
-        <v>-1</v>
+        <v>-426</v>
       </c>
       <c r="AL11" s="77">
-        <v>688</v>
+        <v>246481</v>
       </c>
     </row>
     <row r="12">
@@ -2673,94 +2673,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>222</v>
+        <v>71840</v>
       </c>
       <c r="C12" s="7">
-        <v>210</v>
+        <v>69958</v>
       </c>
       <c r="D12" s="9">
-        <v>12</v>
+        <v>1882</v>
       </c>
       <c r="E12" s="11">
-        <v>424</v>
+        <v>141785</v>
       </c>
       <c r="F12" s="13">
-        <v>552</v>
+        <v>183326</v>
       </c>
       <c r="G12" s="15">
-        <v>-128</v>
+        <v>-41540</v>
       </c>
       <c r="H12" s="17">
-        <v>171</v>
+        <v>57430</v>
       </c>
       <c r="I12" s="19">
-        <v>54</v>
+        <v>17782</v>
       </c>
       <c r="J12" s="21">
-        <v>117</v>
+        <v>39648</v>
       </c>
       <c r="K12" s="23">
-        <v>23</v>
+        <v>7510</v>
       </c>
       <c r="L12" s="25">
-        <v>17</v>
+        <v>5370</v>
       </c>
       <c r="M12" s="27">
-        <v>6</v>
+        <v>2140</v>
       </c>
       <c r="N12" s="29">
-        <v>14</v>
+        <v>4734</v>
       </c>
       <c r="O12" s="31">
-        <v>2</v>
+        <v>797</v>
       </c>
       <c r="P12" s="33">
-        <v>12</v>
+        <v>3937</v>
       </c>
       <c r="Q12" s="35">
-        <v>50</v>
+        <v>16777</v>
       </c>
       <c r="R12" s="37">
-        <v>10</v>
+        <v>3434</v>
       </c>
       <c r="S12" s="39">
-        <v>40</v>
+        <v>13343</v>
       </c>
       <c r="T12" s="41">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="U12" s="43">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V12" s="45">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="W12" s="47">
-        <v>2</v>
+        <v>575</v>
       </c>
       <c r="X12" s="49">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="Y12" s="51">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="Z12" s="53">
-        <v>36</v>
+        <v>11820</v>
       </c>
       <c r="AA12" s="55">
-        <v>20</v>
+        <v>6369</v>
       </c>
       <c r="AB12" s="57">
-        <v>16</v>
+        <v>5451</v>
       </c>
       <c r="AC12" s="59">
-        <v>45</v>
+        <v>15669</v>
       </c>
       <c r="AD12" s="61">
-        <v>5</v>
+        <v>1471</v>
       </c>
       <c r="AE12" s="63">
-        <v>40</v>
+        <v>14198</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>13</v>
+        <v>4441</v>
       </c>
       <c r="AJ12" s="73">
-        <v>13</v>
+        <v>4430</v>
       </c>
       <c r="AK12" s="75">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL12" s="77">
-        <v>830</v>
+        <v>275496</v>
       </c>
     </row>
     <row r="13">
@@ -2789,58 +2789,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>111</v>
+        <v>30939</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>27695</v>
       </c>
       <c r="D13" s="9">
-        <v>11</v>
+        <v>3244</v>
       </c>
       <c r="E13" s="11">
-        <v>179</v>
+        <v>49493</v>
       </c>
       <c r="F13" s="13">
-        <v>196</v>
+        <v>54455</v>
       </c>
       <c r="G13" s="15">
-        <v>-17</v>
+        <v>-4962</v>
       </c>
       <c r="H13" s="17">
-        <v>38</v>
+        <v>10831</v>
       </c>
       <c r="I13" s="19">
-        <v>33</v>
+        <v>9167</v>
       </c>
       <c r="J13" s="21">
-        <v>6</v>
+        <v>1664</v>
       </c>
       <c r="K13" s="23">
-        <v>12</v>
+        <v>3279</v>
       </c>
       <c r="L13" s="25">
-        <v>11</v>
+        <v>3136</v>
       </c>
       <c r="M13" s="27">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N13" s="29">
-        <v>6</v>
+        <v>1590</v>
       </c>
       <c r="O13" s="31">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="P13" s="33">
-        <v>4</v>
+        <v>1133</v>
       </c>
       <c r="Q13" s="35">
-        <v>9</v>
+        <v>2493</v>
       </c>
       <c r="R13" s="37">
-        <v>2</v>
+        <v>560</v>
       </c>
       <c r="S13" s="39">
-        <v>7</v>
+        <v>1933</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2852,31 +2852,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z13" s="53">
-        <v>8</v>
+        <v>2156</v>
       </c>
       <c r="AA13" s="55">
-        <v>12</v>
+        <v>3403</v>
       </c>
       <c r="AB13" s="57">
-        <v>-4</v>
+        <v>-1247</v>
       </c>
       <c r="AC13" s="59">
-        <v>4</v>
+        <v>1277</v>
       </c>
       <c r="AD13" s="61">
-        <v>6</v>
+        <v>1598</v>
       </c>
       <c r="AE13" s="63">
-        <v>-1</v>
+        <v>-322</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2888,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>4</v>
+        <v>1156</v>
       </c>
       <c r="AJ13" s="73">
-        <v>4</v>
+        <v>1101</v>
       </c>
       <c r="AK13" s="75">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL13" s="77">
-        <v>332</v>
+        <v>92419</v>
       </c>
     </row>
     <row r="14">
@@ -2905,94 +2905,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>105</v>
+        <v>30085</v>
       </c>
       <c r="C14" s="7">
-        <v>119</v>
+        <v>34297</v>
       </c>
       <c r="D14" s="9">
-        <v>-14</v>
+        <v>-4212</v>
       </c>
       <c r="E14" s="11">
-        <v>269</v>
+        <v>77644</v>
       </c>
       <c r="F14" s="13">
-        <v>227</v>
+        <v>65161</v>
       </c>
       <c r="G14" s="15">
-        <v>42</v>
+        <v>12483</v>
       </c>
       <c r="H14" s="17">
-        <v>33</v>
+        <v>9436</v>
       </c>
       <c r="I14" s="19">
-        <v>57</v>
+        <v>16489</v>
       </c>
       <c r="J14" s="21">
-        <v>-24</v>
+        <v>-7053</v>
       </c>
       <c r="K14" s="23">
-        <v>14</v>
+        <v>4073</v>
       </c>
       <c r="L14" s="25">
-        <v>12</v>
+        <v>3534</v>
       </c>
       <c r="M14" s="27">
-        <v>2</v>
+        <v>538</v>
       </c>
       <c r="N14" s="29">
-        <v>2</v>
+        <v>615</v>
       </c>
       <c r="O14" s="31">
-        <v>3</v>
+        <v>1017</v>
       </c>
       <c r="P14" s="33">
-        <v>-1</v>
+        <v>-401</v>
       </c>
       <c r="Q14" s="35">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="R14" s="37">
-        <v>10</v>
+        <v>2819</v>
       </c>
       <c r="S14" s="39">
-        <v>-7</v>
+        <v>-2038</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
       </c>
       <c r="U14" s="43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V14" s="45">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X14" s="49">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y14" s="51">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="Z14" s="53">
-        <v>13</v>
+        <v>3835</v>
       </c>
       <c r="AA14" s="55">
-        <v>29</v>
+        <v>8472</v>
       </c>
       <c r="AB14" s="57">
-        <v>-16</v>
+        <v>-4637</v>
       </c>
       <c r="AC14" s="59">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AD14" s="61">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="AE14" s="63">
-        <v>-2</v>
+        <v>-480</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>2</v>
+        <v>488</v>
       </c>
       <c r="AJ14" s="73">
-        <v>6</v>
+        <v>1706</v>
       </c>
       <c r="AK14" s="75">
-        <v>-4</v>
+        <v>-1218</v>
       </c>
       <c r="AL14" s="77">
-        <v>408</v>
+        <v>117653</v>
       </c>
     </row>
     <row r="15">
@@ -3021,94 +3021,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>173</v>
+        <v>56186</v>
       </c>
       <c r="C15" s="7">
-        <v>184</v>
+        <v>59535</v>
       </c>
       <c r="D15" s="9">
-        <v>-11</v>
+        <v>-3348</v>
       </c>
       <c r="E15" s="11">
-        <v>468</v>
+        <v>151202</v>
       </c>
       <c r="F15" s="13">
-        <v>383</v>
+        <v>123878</v>
       </c>
       <c r="G15" s="15">
-        <v>86</v>
+        <v>27324</v>
       </c>
       <c r="H15" s="17">
-        <v>24</v>
+        <v>7571</v>
       </c>
       <c r="I15" s="19">
-        <v>90</v>
+        <v>29025</v>
       </c>
       <c r="J15" s="21">
-        <v>-67</v>
+        <v>-21453</v>
       </c>
       <c r="K15" s="23">
-        <v>7</v>
+        <v>2383</v>
       </c>
       <c r="L15" s="25">
-        <v>11</v>
+        <v>3657</v>
       </c>
       <c r="M15" s="27">
-        <v>-4</v>
+        <v>-1273</v>
       </c>
       <c r="N15" s="29">
-        <v>2</v>
+        <v>499</v>
       </c>
       <c r="O15" s="31">
-        <v>8</v>
+        <v>2500</v>
       </c>
       <c r="P15" s="33">
-        <v>-6</v>
+        <v>-2001</v>
       </c>
       <c r="Q15" s="35">
-        <v>3</v>
+        <v>903</v>
       </c>
       <c r="R15" s="37">
-        <v>23</v>
+        <v>7494</v>
       </c>
       <c r="S15" s="39">
-        <v>-21</v>
+        <v>-6591</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
       </c>
       <c r="U15" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="V15" s="45">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="W15" s="47">
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Y15" s="51">
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="Z15" s="53">
-        <v>10</v>
+        <v>3088</v>
       </c>
       <c r="AA15" s="55">
-        <v>42</v>
+        <v>13679</v>
       </c>
       <c r="AB15" s="57">
-        <v>-33</v>
+        <v>-10591</v>
       </c>
       <c r="AC15" s="59">
-        <v>2</v>
+        <v>697</v>
       </c>
       <c r="AD15" s="61">
-        <v>5</v>
+        <v>1556</v>
       </c>
       <c r="AE15" s="63">
-        <v>-3</v>
+        <v>-859</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>4</v>
+        <v>1384</v>
       </c>
       <c r="AJ15" s="73">
-        <v>12</v>
+        <v>3907</v>
       </c>
       <c r="AK15" s="75">
-        <v>-8</v>
+        <v>-2522</v>
       </c>
       <c r="AL15" s="77">
-        <v>669</v>
+        <v>216344</v>
       </c>
     </row>
     <row r="16">
@@ -3137,58 +3137,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>136</v>
+        <v>43533</v>
       </c>
       <c r="C16" s="7">
-        <v>135</v>
+        <v>43137</v>
       </c>
       <c r="D16" s="9">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="E16" s="11">
-        <v>334</v>
+        <v>106987</v>
       </c>
       <c r="F16" s="13">
-        <v>313</v>
+        <v>100946</v>
       </c>
       <c r="G16" s="15">
-        <v>21</v>
+        <v>6041</v>
       </c>
       <c r="H16" s="17">
-        <v>44</v>
+        <v>14496</v>
       </c>
       <c r="I16" s="19">
-        <v>67</v>
+        <v>21139</v>
       </c>
       <c r="J16" s="21">
-        <v>-22</v>
+        <v>-6643</v>
       </c>
       <c r="K16" s="23">
-        <v>11</v>
+        <v>3457</v>
       </c>
       <c r="L16" s="25">
-        <v>15</v>
+        <v>4897</v>
       </c>
       <c r="M16" s="27">
-        <v>-5</v>
+        <v>-1440</v>
       </c>
       <c r="N16" s="29">
-        <v>10</v>
+        <v>3116</v>
       </c>
       <c r="O16" s="31">
-        <v>10</v>
+        <v>3131</v>
       </c>
       <c r="P16" s="33">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="Q16" s="35">
-        <v>7</v>
+        <v>2483</v>
       </c>
       <c r="R16" s="37">
-        <v>13</v>
+        <v>4148</v>
       </c>
       <c r="S16" s="39">
-        <v>-6</v>
+        <v>-1665</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3200,31 +3200,31 @@
         <v>0</v>
       </c>
       <c r="W16" s="47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Y16" s="51">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="Z16" s="53">
-        <v>10</v>
+        <v>3382</v>
       </c>
       <c r="AA16" s="55">
-        <v>22</v>
+        <v>6906</v>
       </c>
       <c r="AB16" s="57">
-        <v>-12</v>
+        <v>-3524</v>
       </c>
       <c r="AC16" s="59">
-        <v>6</v>
+        <v>2036</v>
       </c>
       <c r="AD16" s="61">
-        <v>6</v>
+        <v>1989</v>
       </c>
       <c r="AE16" s="63">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>5</v>
+        <v>1553</v>
       </c>
       <c r="AJ16" s="73">
-        <v>4</v>
+        <v>1347</v>
       </c>
       <c r="AK16" s="75">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="AL16" s="77">
-        <v>519</v>
+        <v>166570</v>
       </c>
     </row>
     <row r="17">
@@ -3253,94 +3253,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>160</v>
+        <v>59988</v>
       </c>
       <c r="C17" s="7">
-        <v>164</v>
+        <v>60898</v>
       </c>
       <c r="D17" s="9">
-        <v>-4</v>
+        <v>-910</v>
       </c>
       <c r="E17" s="11">
-        <v>303</v>
+        <v>112853</v>
       </c>
       <c r="F17" s="13">
-        <v>294</v>
+        <v>109961</v>
       </c>
       <c r="G17" s="15">
-        <v>10</v>
+        <v>2892</v>
       </c>
       <c r="H17" s="17">
-        <v>43</v>
+        <v>16549</v>
       </c>
       <c r="I17" s="19">
-        <v>51</v>
+        <v>19230</v>
       </c>
       <c r="J17" s="21">
-        <v>-8</v>
+        <v>-2681</v>
       </c>
       <c r="K17" s="23">
-        <v>18</v>
+        <v>6651</v>
       </c>
       <c r="L17" s="25">
-        <v>17</v>
+        <v>6631</v>
       </c>
       <c r="M17" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N17" s="29">
-        <v>2</v>
+        <v>667</v>
       </c>
       <c r="O17" s="31">
-        <v>5</v>
+        <v>1719</v>
       </c>
       <c r="P17" s="33">
-        <v>-3</v>
+        <v>-1053</v>
       </c>
       <c r="Q17" s="35">
-        <v>11</v>
+        <v>4304</v>
       </c>
       <c r="R17" s="37">
-        <v>7</v>
+        <v>2697</v>
       </c>
       <c r="S17" s="39">
-        <v>4</v>
+        <v>1608</v>
       </c>
       <c r="T17" s="41">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="U17" s="43">
         <v>0</v>
       </c>
       <c r="V17" s="45">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="W17" s="47">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="X17" s="49">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Y17" s="51">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="Z17" s="53">
-        <v>9</v>
+        <v>3455</v>
       </c>
       <c r="AA17" s="55">
-        <v>16</v>
+        <v>6102</v>
       </c>
       <c r="AB17" s="57">
-        <v>-7</v>
+        <v>-2647</v>
       </c>
       <c r="AC17" s="59">
-        <v>3</v>
+        <v>1174</v>
       </c>
       <c r="AD17" s="61">
-        <v>6</v>
+        <v>2018</v>
       </c>
       <c r="AE17" s="63">
-        <v>-3</v>
+        <v>-844</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3352,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>5</v>
+        <v>1752</v>
       </c>
       <c r="AJ17" s="73">
-        <v>3</v>
+        <v>1053</v>
       </c>
       <c r="AK17" s="75">
-        <v>2</v>
+        <v>699</v>
       </c>
       <c r="AL17" s="77">
-        <v>511</v>
+        <v>191142</v>
       </c>
     </row>
     <row r="18">
@@ -3369,94 +3369,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>141</v>
+        <v>54513</v>
       </c>
       <c r="C18" s="7">
-        <v>160</v>
+        <v>61730</v>
       </c>
       <c r="D18" s="9">
-        <v>-19</v>
+        <v>-7216</v>
       </c>
       <c r="E18" s="11">
-        <v>405</v>
+        <v>157551</v>
       </c>
       <c r="F18" s="13">
-        <v>381</v>
+        <v>148632</v>
       </c>
       <c r="G18" s="15">
-        <v>24</v>
+        <v>8920</v>
       </c>
       <c r="H18" s="17">
-        <v>49</v>
+        <v>19128</v>
       </c>
       <c r="I18" s="19">
-        <v>61</v>
+        <v>23671</v>
       </c>
       <c r="J18" s="21">
-        <v>-12</v>
+        <v>-4542</v>
       </c>
       <c r="K18" s="23">
-        <v>16</v>
+        <v>6342</v>
       </c>
       <c r="L18" s="25">
-        <v>12</v>
+        <v>4612</v>
       </c>
       <c r="M18" s="27">
-        <v>5</v>
+        <v>1730</v>
       </c>
       <c r="N18" s="29">
-        <v>5</v>
+        <v>1916</v>
       </c>
       <c r="O18" s="31">
-        <v>8</v>
+        <v>3218</v>
       </c>
       <c r="P18" s="33">
-        <v>-3</v>
+        <v>-1303</v>
       </c>
       <c r="Q18" s="35">
-        <v>11</v>
+        <v>4158</v>
       </c>
       <c r="R18" s="37">
-        <v>9</v>
+        <v>3419</v>
       </c>
       <c r="S18" s="39">
-        <v>2</v>
+        <v>739</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
       </c>
       <c r="U18" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="47">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="X18" s="49">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Y18" s="51">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="Z18" s="53">
-        <v>13</v>
+        <v>5214</v>
       </c>
       <c r="AA18" s="55">
-        <v>24</v>
+        <v>9195</v>
       </c>
       <c r="AB18" s="57">
-        <v>-10</v>
+        <v>-3981</v>
       </c>
       <c r="AC18" s="59">
-        <v>4</v>
+        <v>1454</v>
       </c>
       <c r="AD18" s="61">
-        <v>8</v>
+        <v>3114</v>
       </c>
       <c r="AE18" s="63">
-        <v>-4</v>
+        <v>-1659</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>12</v>
+        <v>4981</v>
       </c>
       <c r="AJ18" s="73">
-        <v>6</v>
+        <v>2142</v>
       </c>
       <c r="AK18" s="75">
-        <v>7</v>
+        <v>2839</v>
       </c>
       <c r="AL18" s="77">
-        <v>607</v>
+        <v>236174</v>
       </c>
     </row>
     <row r="19">
@@ -3485,94 +3485,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>113</v>
+        <v>48609</v>
       </c>
       <c r="C19" s="7">
-        <v>167</v>
+        <v>72104</v>
       </c>
       <c r="D19" s="9">
-        <v>-54</v>
+        <v>-23496</v>
       </c>
       <c r="E19" s="11">
-        <v>423</v>
+        <v>182784</v>
       </c>
       <c r="F19" s="13">
-        <v>304</v>
+        <v>131583</v>
       </c>
       <c r="G19" s="15">
-        <v>118</v>
+        <v>51201</v>
       </c>
       <c r="H19" s="17">
-        <v>29</v>
+        <v>12521</v>
       </c>
       <c r="I19" s="19">
-        <v>88</v>
+        <v>37903</v>
       </c>
       <c r="J19" s="21">
-        <v>-59</v>
+        <v>-25382</v>
       </c>
       <c r="K19" s="23">
-        <v>9</v>
+        <v>4039</v>
       </c>
       <c r="L19" s="25">
-        <v>15</v>
+        <v>6401</v>
       </c>
       <c r="M19" s="27">
-        <v>-5</v>
+        <v>-2362</v>
       </c>
       <c r="N19" s="29">
-        <v>1</v>
+        <v>549</v>
       </c>
       <c r="O19" s="31">
-        <v>9</v>
+        <v>4010</v>
       </c>
       <c r="P19" s="33">
-        <v>-8</v>
+        <v>-3461</v>
       </c>
       <c r="Q19" s="35">
-        <v>3</v>
+        <v>1538</v>
       </c>
       <c r="R19" s="37">
-        <v>24</v>
+        <v>10438</v>
       </c>
       <c r="S19" s="39">
-        <v>-21</v>
+        <v>-8900</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
       </c>
       <c r="U19" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="45">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W19" s="47">
         <v>0</v>
       </c>
       <c r="X19" s="49">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Z19" s="53">
-        <v>9</v>
+        <v>3828</v>
       </c>
       <c r="AA19" s="55">
-        <v>31</v>
+        <v>13539</v>
       </c>
       <c r="AB19" s="57">
-        <v>-22</v>
+        <v>-9710</v>
       </c>
       <c r="AC19" s="59">
-        <v>6</v>
+        <v>2566</v>
       </c>
       <c r="AD19" s="61">
-        <v>8</v>
+        <v>3444</v>
       </c>
       <c r="AE19" s="63">
-        <v>-2</v>
+        <v>-877</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>3</v>
+        <v>1212</v>
       </c>
       <c r="AJ19" s="73">
-        <v>8</v>
+        <v>3535</v>
       </c>
       <c r="AK19" s="75">
-        <v>-6</v>
+        <v>-2323</v>
       </c>
       <c r="AL19" s="77">
-        <v>567</v>
+        <v>245125</v>
       </c>
     </row>
     <row r="20">
@@ -3601,94 +3601,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>220</v>
+        <v>103949</v>
       </c>
       <c r="C20" s="7">
-        <v>302</v>
+        <v>142147</v>
       </c>
       <c r="D20" s="9">
-        <v>-82</v>
+        <v>-38198</v>
       </c>
       <c r="E20" s="11">
-        <v>543</v>
+        <v>254882</v>
       </c>
       <c r="F20" s="13">
-        <v>459</v>
+        <v>216462</v>
       </c>
       <c r="G20" s="15">
-        <v>84</v>
+        <v>38420</v>
       </c>
       <c r="H20" s="17">
-        <v>72</v>
+        <v>34014</v>
       </c>
       <c r="I20" s="19">
-        <v>78</v>
+        <v>36204</v>
       </c>
       <c r="J20" s="21">
-        <v>-7</v>
+        <v>-2190</v>
       </c>
       <c r="K20" s="23">
+        <v>6727</v>
+      </c>
+      <c r="L20" s="25">
+        <v>6836</v>
+      </c>
+      <c r="M20" s="27">
+        <v>-109</v>
+      </c>
+      <c r="N20" s="29">
+        <v>1593</v>
+      </c>
+      <c r="O20" s="31">
+        <v>4867</v>
+      </c>
+      <c r="P20" s="33">
+        <v>-3274</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>3678</v>
+      </c>
+      <c r="R20" s="37">
+        <v>5982</v>
+      </c>
+      <c r="S20" s="39">
+        <v>-2304</v>
+      </c>
+      <c r="T20" s="41">
+        <v>0</v>
+      </c>
+      <c r="U20" s="43">
+        <v>0</v>
+      </c>
+      <c r="V20" s="45">
+        <v>0</v>
+      </c>
+      <c r="W20" s="47">
         <v>14</v>
       </c>
-      <c r="L20" s="25">
-        <v>15</v>
-      </c>
-      <c r="M20" s="27">
-        <v>0</v>
-      </c>
-      <c r="N20" s="29">
-        <v>3</v>
-      </c>
-      <c r="O20" s="31">
-        <v>10</v>
-      </c>
-      <c r="P20" s="33">
-        <v>-7</v>
-      </c>
-      <c r="Q20" s="35">
-        <v>8</v>
-      </c>
-      <c r="R20" s="37">
-        <v>13</v>
-      </c>
-      <c r="S20" s="39">
-        <v>-5</v>
-      </c>
-      <c r="T20" s="41">
-        <v>0</v>
-      </c>
-      <c r="U20" s="43">
-        <v>0</v>
-      </c>
-      <c r="V20" s="45">
-        <v>0</v>
-      </c>
-      <c r="W20" s="47">
-        <v>0</v>
-      </c>
       <c r="X20" s="49">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="Y20" s="51">
-        <v>-1</v>
+        <v>-312</v>
       </c>
       <c r="Z20" s="53">
-        <v>40</v>
+        <v>19092</v>
       </c>
       <c r="AA20" s="55">
-        <v>28</v>
+        <v>13084</v>
       </c>
       <c r="AB20" s="57">
-        <v>11</v>
+        <v>6007</v>
       </c>
       <c r="AC20" s="59">
-        <v>6</v>
+        <v>2910</v>
       </c>
       <c r="AD20" s="61">
-        <v>11</v>
+        <v>5108</v>
       </c>
       <c r="AE20" s="63">
-        <v>-5</v>
+        <v>-2198</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>11</v>
+        <v>5169</v>
       </c>
       <c r="AJ20" s="73">
-        <v>7</v>
+        <v>3201</v>
       </c>
       <c r="AK20" s="75">
-        <v>4</v>
+        <v>1968</v>
       </c>
       <c r="AL20" s="77">
-        <v>846</v>
+        <v>398014</v>
       </c>
     </row>
     <row r="21">
@@ -3717,94 +3717,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>257</v>
+        <v>114757</v>
       </c>
       <c r="C21" s="7">
-        <v>445</v>
+        <v>199876</v>
       </c>
       <c r="D21" s="9">
-        <v>-187</v>
+        <v>-85119</v>
       </c>
       <c r="E21" s="11">
-        <v>676</v>
+        <v>308365</v>
       </c>
       <c r="F21" s="13">
-        <v>578</v>
+        <v>264459</v>
       </c>
       <c r="G21" s="15">
-        <v>98</v>
+        <v>43905</v>
       </c>
       <c r="H21" s="17">
-        <v>133</v>
+        <v>61051</v>
       </c>
       <c r="I21" s="19">
-        <v>47</v>
+        <v>21244</v>
       </c>
       <c r="J21" s="21">
-        <v>86</v>
+        <v>39807</v>
       </c>
       <c r="K21" s="23">
-        <v>19</v>
+        <v>8548</v>
       </c>
       <c r="L21" s="25">
-        <v>15</v>
+        <v>6885</v>
       </c>
       <c r="M21" s="27">
-        <v>3</v>
+        <v>1663</v>
       </c>
       <c r="N21" s="29">
-        <v>15</v>
+        <v>7012</v>
       </c>
       <c r="O21" s="31">
-        <v>4</v>
+        <v>1931</v>
       </c>
       <c r="P21" s="33">
-        <v>11</v>
+        <v>5081</v>
       </c>
       <c r="Q21" s="35">
-        <v>28</v>
+        <v>13049</v>
       </c>
       <c r="R21" s="37">
-        <v>11</v>
+        <v>4815</v>
       </c>
       <c r="S21" s="39">
-        <v>18</v>
+        <v>8234</v>
       </c>
       <c r="T21" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="X21" s="49">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="Y21" s="51">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="Z21" s="53">
-        <v>49</v>
+        <v>22410</v>
       </c>
       <c r="AA21" s="55">
-        <v>8</v>
+        <v>3521</v>
       </c>
       <c r="AB21" s="57">
-        <v>41</v>
+        <v>18889</v>
       </c>
       <c r="AC21" s="59">
-        <v>21</v>
+        <v>9450</v>
       </c>
       <c r="AD21" s="61">
-        <v>8</v>
+        <v>3789</v>
       </c>
       <c r="AE21" s="63">
-        <v>12</v>
+        <v>5662</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>8</v>
+        <v>3779</v>
       </c>
       <c r="AJ21" s="73">
-        <v>5</v>
+        <v>2372</v>
       </c>
       <c r="AK21" s="75">
-        <v>3</v>
+        <v>1406</v>
       </c>
       <c r="AL21" s="77">
-        <v>1075</v>
+        <v>487952</v>
       </c>
     </row>
     <row r="22">
@@ -3833,58 +3833,58 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>355</v>
+        <v>180087</v>
       </c>
       <c r="C22" s="7">
-        <v>407</v>
+        <v>209844</v>
       </c>
       <c r="D22" s="9">
-        <v>-52</v>
+        <v>-29757</v>
       </c>
       <c r="E22" s="11">
-        <v>858</v>
+        <v>447557</v>
       </c>
       <c r="F22" s="13">
-        <v>811</v>
+        <v>423032</v>
       </c>
       <c r="G22" s="15">
-        <v>48</v>
+        <v>24525</v>
       </c>
       <c r="H22" s="17">
-        <v>89</v>
+        <v>47082</v>
       </c>
       <c r="I22" s="19">
-        <v>94</v>
+        <v>46410</v>
       </c>
       <c r="J22" s="21">
-        <v>-4</v>
+        <v>672</v>
       </c>
       <c r="K22" s="23">
-        <v>18</v>
+        <v>9024</v>
       </c>
       <c r="L22" s="25">
-        <v>19</v>
+        <v>9417</v>
       </c>
       <c r="M22" s="27">
-        <v>-1</v>
+        <v>-394</v>
       </c>
       <c r="N22" s="29">
-        <v>11</v>
+        <v>5746</v>
       </c>
       <c r="O22" s="31">
-        <v>8</v>
+        <v>3808</v>
       </c>
       <c r="P22" s="33">
-        <v>3</v>
+        <v>1938</v>
       </c>
       <c r="Q22" s="35">
-        <v>18</v>
+        <v>9866</v>
       </c>
       <c r="R22" s="37">
-        <v>12</v>
+        <v>6229</v>
       </c>
       <c r="S22" s="39">
-        <v>6</v>
+        <v>3636</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
@@ -3896,31 +3896,31 @@
         <v>0</v>
       </c>
       <c r="W22" s="47">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="X22" s="49">
-        <v>2</v>
+        <v>746</v>
       </c>
       <c r="Y22" s="51">
-        <v>-1</v>
+        <v>-274</v>
       </c>
       <c r="Z22" s="53">
-        <v>27</v>
+        <v>14690</v>
       </c>
       <c r="AA22" s="55">
-        <v>40</v>
+        <v>19392</v>
       </c>
       <c r="AB22" s="57">
-        <v>-13</v>
+        <v>-4701</v>
       </c>
       <c r="AC22" s="59">
-        <v>14</v>
+        <v>7284</v>
       </c>
       <c r="AD22" s="61">
-        <v>13</v>
+        <v>6818</v>
       </c>
       <c r="AE22" s="63">
-        <v>1</v>
+        <v>466</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3932,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>13</v>
+        <v>6785</v>
       </c>
       <c r="AJ22" s="73">
-        <v>4</v>
+        <v>2226</v>
       </c>
       <c r="AK22" s="75">
-        <v>8</v>
+        <v>4559</v>
       </c>
       <c r="AL22" s="77">
-        <v>1315</v>
+        <v>681512</v>
       </c>
     </row>
     <row r="23">
@@ -3949,94 +3949,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>242</v>
+        <v>137698</v>
       </c>
       <c r="C23" s="7">
-        <v>403</v>
+        <v>230128</v>
       </c>
       <c r="D23" s="9">
-        <v>-161</v>
+        <v>-92430</v>
       </c>
       <c r="E23" s="11">
-        <v>765</v>
+        <v>438403</v>
       </c>
       <c r="F23" s="13">
-        <v>693</v>
+        <v>397666</v>
       </c>
       <c r="G23" s="15">
-        <v>72</v>
+        <v>40737</v>
       </c>
       <c r="H23" s="17">
-        <v>138</v>
+        <v>79215</v>
       </c>
       <c r="I23" s="19">
-        <v>54</v>
+        <v>30766</v>
       </c>
       <c r="J23" s="21">
-        <v>84</v>
+        <v>48449</v>
       </c>
       <c r="K23" s="23">
-        <v>25</v>
+        <v>14461</v>
       </c>
       <c r="L23" s="25">
-        <v>17</v>
+        <v>9873</v>
       </c>
       <c r="M23" s="27">
-        <v>8</v>
+        <v>4588</v>
       </c>
       <c r="N23" s="29">
-        <v>16</v>
+        <v>8983</v>
       </c>
       <c r="O23" s="31">
-        <v>3</v>
+        <v>1488</v>
       </c>
       <c r="P23" s="33">
+        <v>7494</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>14285</v>
+      </c>
+      <c r="R23" s="37">
+        <v>5601</v>
+      </c>
+      <c r="S23" s="39">
+        <v>8684</v>
+      </c>
+      <c r="T23" s="41">
+        <v>4</v>
+      </c>
+      <c r="U23" s="43">
         <v>13</v>
       </c>
-      <c r="Q23" s="35">
-        <v>25</v>
-      </c>
-      <c r="R23" s="37">
-        <v>10</v>
-      </c>
-      <c r="S23" s="39">
-        <v>16</v>
-      </c>
-      <c r="T23" s="41">
-        <v>0</v>
-      </c>
-      <c r="U23" s="43">
-        <v>0</v>
-      </c>
       <c r="V23" s="45">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="X23" s="49">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="Y23" s="51">
-        <v>0</v>
+        <v>-202</v>
       </c>
       <c r="Z23" s="53">
-        <v>50</v>
+        <v>29244</v>
       </c>
       <c r="AA23" s="55">
-        <v>11</v>
+        <v>6149</v>
       </c>
       <c r="AB23" s="57">
-        <v>40</v>
+        <v>23096</v>
       </c>
       <c r="AC23" s="59">
-        <v>21</v>
+        <v>12080</v>
       </c>
       <c r="AD23" s="61">
-        <v>13</v>
+        <v>7282</v>
       </c>
       <c r="AE23" s="63">
-        <v>8</v>
+        <v>4798</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4048,16 +4048,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>14</v>
+        <v>8183</v>
       </c>
       <c r="AJ23" s="73">
-        <v>9</v>
+        <v>4938</v>
       </c>
       <c r="AK23" s="75">
-        <v>5</v>
+        <v>3245</v>
       </c>
       <c r="AL23" s="77">
-        <v>1158</v>
+        <v>663498</v>
       </c>
     </row>
     <row r="24">
@@ -4065,94 +4065,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>287</v>
+        <v>158945</v>
       </c>
       <c r="C24" s="7">
-        <v>311</v>
+        <v>172633</v>
       </c>
       <c r="D24" s="9">
-        <v>-24</v>
+        <v>-13688</v>
       </c>
       <c r="E24" s="11">
-        <v>528</v>
+        <v>292857</v>
       </c>
       <c r="F24" s="13">
-        <v>492</v>
+        <v>273223</v>
       </c>
       <c r="G24" s="15">
-        <v>36</v>
+        <v>19634</v>
       </c>
       <c r="H24" s="17">
-        <v>69</v>
+        <v>38970</v>
       </c>
       <c r="I24" s="19">
-        <v>82</v>
+        <v>45328</v>
       </c>
       <c r="J24" s="21">
-        <v>-13</v>
+        <v>-6358</v>
       </c>
       <c r="K24" s="23">
-        <v>19</v>
+        <v>10612</v>
       </c>
       <c r="L24" s="25">
-        <v>16</v>
+        <v>8685</v>
       </c>
       <c r="M24" s="27">
-        <v>3</v>
+        <v>1927</v>
       </c>
       <c r="N24" s="29">
-        <v>3</v>
+        <v>1533</v>
       </c>
       <c r="O24" s="31">
-        <v>3</v>
+        <v>1586</v>
       </c>
       <c r="P24" s="33">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="Q24" s="35">
-        <v>4</v>
+        <v>2235</v>
       </c>
       <c r="R24" s="37">
-        <v>4</v>
+        <v>2450</v>
       </c>
       <c r="S24" s="39">
-        <v>0</v>
+        <v>-215</v>
       </c>
       <c r="T24" s="41">
         <v>0</v>
       </c>
       <c r="U24" s="43">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V24" s="45">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="W24" s="47">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="X24" s="49">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="Y24" s="51">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="Z24" s="53">
-        <v>39</v>
+        <v>22123</v>
       </c>
       <c r="AA24" s="55">
-        <v>53</v>
+        <v>28936</v>
       </c>
       <c r="AB24" s="57">
-        <v>-13</v>
+        <v>-6813</v>
       </c>
       <c r="AC24" s="59">
-        <v>4</v>
+        <v>2042</v>
       </c>
       <c r="AD24" s="61">
-        <v>6</v>
+        <v>3471</v>
       </c>
       <c r="AE24" s="63">
-        <v>-3</v>
+        <v>-1428</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>3</v>
+        <v>1653</v>
       </c>
       <c r="AJ24" s="73">
-        <v>2</v>
+        <v>1241</v>
       </c>
       <c r="AK24" s="75">
-        <v>1</v>
+        <v>412</v>
       </c>
       <c r="AL24" s="77">
-        <v>887</v>
+        <v>492426</v>
       </c>
     </row>
     <row r="25">
@@ -4181,94 +4181,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>174</v>
+        <v>107533</v>
       </c>
       <c r="C25" s="7">
-        <v>221</v>
+        <v>136314</v>
       </c>
       <c r="D25" s="9">
-        <v>-46</v>
+        <v>-28781</v>
       </c>
       <c r="E25" s="11">
-        <v>355</v>
+        <v>219296</v>
       </c>
       <c r="F25" s="13">
-        <v>331</v>
+        <v>204512</v>
       </c>
       <c r="G25" s="15">
-        <v>24</v>
+        <v>14784</v>
       </c>
       <c r="H25" s="17">
-        <v>76</v>
+        <v>46868</v>
       </c>
       <c r="I25" s="19">
-        <v>54</v>
+        <v>33175</v>
       </c>
       <c r="J25" s="21">
-        <v>22</v>
+        <v>13693</v>
       </c>
       <c r="K25" s="23">
-        <v>14</v>
+        <v>8854</v>
       </c>
       <c r="L25" s="25">
-        <v>13</v>
+        <v>7873</v>
       </c>
       <c r="M25" s="27">
-        <v>2</v>
+        <v>981</v>
       </c>
       <c r="N25" s="29">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="O25" s="31">
-        <v>3</v>
+        <v>2098</v>
       </c>
       <c r="P25" s="33">
-        <v>-3</v>
+        <v>-1727</v>
       </c>
       <c r="Q25" s="35">
-        <v>2</v>
+        <v>1496</v>
       </c>
       <c r="R25" s="37">
-        <v>4</v>
+        <v>2243</v>
       </c>
       <c r="S25" s="39">
-        <v>-1</v>
+        <v>-747</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="U25" s="43">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25" s="47">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="X25" s="49">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y25" s="51">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="53">
-        <v>53</v>
+        <v>32880</v>
       </c>
       <c r="AA25" s="55">
-        <v>27</v>
+        <v>16742</v>
       </c>
       <c r="AB25" s="57">
-        <v>26</v>
+        <v>16138</v>
       </c>
       <c r="AC25" s="59">
-        <v>5</v>
+        <v>3138</v>
       </c>
       <c r="AD25" s="61">
-        <v>7</v>
+        <v>4135</v>
       </c>
       <c r="AE25" s="63">
-        <v>-2</v>
+        <v>-997</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4280,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>5</v>
+        <v>2868</v>
       </c>
       <c r="AJ25" s="73">
-        <v>4</v>
+        <v>2565</v>
       </c>
       <c r="AK25" s="75">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="AL25" s="77">
-        <v>610</v>
+        <v>376565</v>
       </c>
     </row>
     <row r="26">
@@ -4297,94 +4297,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>281</v>
+        <v>201777</v>
       </c>
       <c r="C26" s="7">
-        <v>258</v>
+        <v>186045</v>
       </c>
       <c r="D26" s="9">
-        <v>23</v>
+        <v>15732</v>
       </c>
       <c r="E26" s="11">
-        <v>622</v>
+        <v>447836</v>
       </c>
       <c r="F26" s="13">
-        <v>522</v>
+        <v>377527</v>
       </c>
       <c r="G26" s="15">
-        <v>99</v>
+        <v>70308</v>
       </c>
       <c r="H26" s="17">
-        <v>61</v>
+        <v>44665</v>
       </c>
       <c r="I26" s="19">
-        <v>185</v>
+        <v>132009</v>
       </c>
       <c r="J26" s="21">
-        <v>-124</v>
+        <v>-87344</v>
       </c>
       <c r="K26" s="23">
-        <v>26</v>
+        <v>18764</v>
       </c>
       <c r="L26" s="25">
-        <v>33</v>
+        <v>23786</v>
       </c>
       <c r="M26" s="27">
-        <v>-7</v>
+        <v>-5022</v>
       </c>
       <c r="N26" s="29">
-        <v>3</v>
+        <v>2159</v>
       </c>
       <c r="O26" s="31">
-        <v>7</v>
+        <v>5021</v>
       </c>
       <c r="P26" s="33">
-        <v>-4</v>
+        <v>-2862</v>
       </c>
       <c r="Q26" s="35">
-        <v>4</v>
+        <v>3019</v>
       </c>
       <c r="R26" s="37">
-        <v>14</v>
+        <v>9849</v>
       </c>
       <c r="S26" s="39">
-        <v>-10</v>
+        <v>-6830</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U26" s="43">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="V26" s="45">
-        <v>0</v>
+        <v>-195</v>
       </c>
       <c r="W26" s="47">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="X26" s="49">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Y26" s="51">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Z26" s="53">
-        <v>16</v>
+        <v>11512</v>
       </c>
       <c r="AA26" s="55">
-        <v>111</v>
+        <v>78680</v>
       </c>
       <c r="AB26" s="57">
-        <v>-95</v>
+        <v>-67168</v>
       </c>
       <c r="AC26" s="59">
-        <v>12</v>
+        <v>9011</v>
       </c>
       <c r="AD26" s="61">
-        <v>20</v>
+        <v>14356</v>
       </c>
       <c r="AE26" s="63">
-        <v>-8</v>
+        <v>-5345</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4396,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>8</v>
+        <v>5772</v>
       </c>
       <c r="AJ26" s="73">
-        <v>6</v>
+        <v>4468</v>
       </c>
       <c r="AK26" s="75">
-        <v>2</v>
+        <v>1303</v>
       </c>
       <c r="AL26" s="77">
-        <v>972</v>
+        <v>700049</v>
       </c>
     </row>
     <row r="27">
@@ -4413,94 +4413,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>235</v>
+        <v>186540</v>
       </c>
       <c r="C27" s="7">
-        <v>215</v>
+        <v>172381</v>
       </c>
       <c r="D27" s="9">
-        <v>20</v>
+        <v>14159</v>
       </c>
       <c r="E27" s="11">
-        <v>725</v>
+        <v>582668</v>
       </c>
       <c r="F27" s="13">
-        <v>714</v>
+        <v>570408</v>
       </c>
       <c r="G27" s="15">
-        <v>11</v>
+        <v>12260</v>
       </c>
       <c r="H27" s="17">
-        <v>72</v>
+        <v>56902</v>
       </c>
       <c r="I27" s="19">
-        <v>108</v>
+        <v>86668</v>
       </c>
       <c r="J27" s="21">
-        <v>-36</v>
+        <v>-29766</v>
       </c>
       <c r="K27" s="23">
-        <v>27</v>
+        <v>21290</v>
       </c>
       <c r="L27" s="25">
-        <v>21</v>
+        <v>16714</v>
       </c>
       <c r="M27" s="27">
-        <v>6</v>
+        <v>4576</v>
       </c>
       <c r="N27" s="29">
-        <v>2</v>
+        <v>1733</v>
       </c>
       <c r="O27" s="31">
-        <v>7</v>
+        <v>5353</v>
       </c>
       <c r="P27" s="33">
-        <v>-4</v>
+        <v>-3620</v>
       </c>
       <c r="Q27" s="35">
-        <v>12</v>
+        <v>8942</v>
       </c>
       <c r="R27" s="37">
-        <v>14</v>
+        <v>11257</v>
       </c>
       <c r="S27" s="39">
-        <v>-2</v>
+        <v>-2315</v>
       </c>
       <c r="T27" s="41">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="U27" s="43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="W27" s="47">
-        <v>1</v>
+        <v>663</v>
       </c>
       <c r="X27" s="49">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y27" s="51">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="Z27" s="53">
-        <v>16</v>
+        <v>12336</v>
       </c>
       <c r="AA27" s="55">
-        <v>40</v>
+        <v>31487</v>
       </c>
       <c r="AB27" s="57">
-        <v>-24</v>
+        <v>-19152</v>
       </c>
       <c r="AC27" s="59">
-        <v>15</v>
+        <v>11798</v>
       </c>
       <c r="AD27" s="61">
-        <v>27</v>
+        <v>21795</v>
       </c>
       <c r="AE27" s="63">
-        <v>-12</v>
+        <v>-9997</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>10</v>
+        <v>8174</v>
       </c>
       <c r="AJ27" s="73">
-        <v>6</v>
+        <v>4827</v>
       </c>
       <c r="AK27" s="75">
-        <v>4</v>
+        <v>3347</v>
       </c>
       <c r="AL27" s="77">
-        <v>1043</v>
+        <v>834284</v>
       </c>
     </row>
     <row r="28">
@@ -4529,94 +4529,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>259</v>
+        <v>233679</v>
       </c>
       <c r="C28" s="7">
-        <v>320</v>
+        <v>285655</v>
       </c>
       <c r="D28" s="9">
-        <v>-61</v>
+        <v>-51976</v>
       </c>
       <c r="E28" s="11">
-        <v>856</v>
+        <v>765766</v>
       </c>
       <c r="F28" s="13">
-        <v>808</v>
+        <v>725128</v>
       </c>
       <c r="G28" s="15">
-        <v>48</v>
+        <v>40638</v>
       </c>
       <c r="H28" s="17">
-        <v>89</v>
+        <v>79000</v>
       </c>
       <c r="I28" s="19">
-        <v>83</v>
+        <v>73526</v>
       </c>
       <c r="J28" s="21">
-        <v>6</v>
+        <v>5474</v>
       </c>
       <c r="K28" s="23">
-        <v>19</v>
+        <v>16974</v>
       </c>
       <c r="L28" s="25">
-        <v>16</v>
+        <v>13970</v>
       </c>
       <c r="M28" s="27">
-        <v>3</v>
+        <v>3005</v>
       </c>
       <c r="N28" s="29">
-        <v>3</v>
+        <v>2472</v>
       </c>
       <c r="O28" s="31">
-        <v>5</v>
+        <v>4696</v>
       </c>
       <c r="P28" s="33">
-        <v>-3</v>
+        <v>-2224</v>
       </c>
       <c r="Q28" s="35">
-        <v>8</v>
+        <v>6731</v>
       </c>
       <c r="R28" s="37">
-        <v>7</v>
+        <v>6663</v>
       </c>
       <c r="S28" s="39">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="T28" s="41">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="U28" s="43">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="V28" s="45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W28" s="47">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="Z28" s="53">
-        <v>51</v>
+        <v>45181</v>
       </c>
       <c r="AA28" s="55">
-        <v>33</v>
+        <v>29380</v>
       </c>
       <c r="AB28" s="57">
-        <v>18</v>
+        <v>15801</v>
       </c>
       <c r="AC28" s="59">
-        <v>8</v>
+        <v>7300</v>
       </c>
       <c r="AD28" s="61">
-        <v>21</v>
+        <v>18406</v>
       </c>
       <c r="AE28" s="63">
-        <v>-13</v>
+        <v>-11106</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4628,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>17</v>
+        <v>14984</v>
       </c>
       <c r="AJ28" s="73">
-        <v>10</v>
+        <v>9121</v>
       </c>
       <c r="AK28" s="75">
-        <v>7</v>
+        <v>5864</v>
       </c>
       <c r="AL28" s="77">
-        <v>1221</v>
+        <v>1093430</v>
       </c>
     </row>
     <row r="29">
@@ -4645,94 +4645,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>426</v>
+        <v>336547</v>
       </c>
       <c r="C29" s="7">
-        <v>329</v>
+        <v>256822</v>
       </c>
       <c r="D29" s="9">
-        <v>97</v>
+        <v>79725</v>
       </c>
       <c r="E29" s="11">
-        <v>930</v>
+        <v>736291</v>
       </c>
       <c r="F29" s="13">
-        <v>1165</v>
+        <v>919021</v>
       </c>
       <c r="G29" s="15">
-        <v>-235</v>
+        <v>-182730</v>
       </c>
       <c r="H29" s="17">
-        <v>268</v>
+        <v>205110</v>
       </c>
       <c r="I29" s="19">
-        <v>137</v>
+        <v>108584</v>
       </c>
       <c r="J29" s="21">
-        <v>130</v>
+        <v>96526</v>
       </c>
       <c r="K29" s="23">
-        <v>18</v>
+        <v>14704</v>
       </c>
       <c r="L29" s="25">
-        <v>26</v>
+        <v>20022</v>
       </c>
       <c r="M29" s="27">
-        <v>-7</v>
+        <v>-5319</v>
       </c>
       <c r="N29" s="29">
-        <v>22</v>
+        <v>16899</v>
       </c>
       <c r="O29" s="31">
-        <v>11</v>
+        <v>8185</v>
       </c>
       <c r="P29" s="33">
-        <v>11</v>
+        <v>8714</v>
       </c>
       <c r="Q29" s="35">
-        <v>47</v>
+        <v>34245</v>
       </c>
       <c r="R29" s="37">
-        <v>17</v>
+        <v>13120</v>
       </c>
       <c r="S29" s="39">
-        <v>30</v>
+        <v>21125</v>
       </c>
       <c r="T29" s="41">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="U29" s="43">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="V29" s="45">
-        <v>0</v>
+        <v>-230</v>
       </c>
       <c r="W29" s="47">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X29" s="49">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="Y29" s="51">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="Z29" s="53">
-        <v>156</v>
+        <v>120088</v>
       </c>
       <c r="AA29" s="55">
-        <v>68</v>
+        <v>55507</v>
       </c>
       <c r="AB29" s="57">
-        <v>88</v>
+        <v>64581</v>
       </c>
       <c r="AC29" s="59">
-        <v>24</v>
+        <v>18830</v>
       </c>
       <c r="AD29" s="61">
-        <v>14</v>
+        <v>11058</v>
       </c>
       <c r="AE29" s="63">
-        <v>10</v>
+        <v>7772</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>17</v>
+        <v>14093</v>
       </c>
       <c r="AJ29" s="73">
-        <v>10</v>
+        <v>7614</v>
       </c>
       <c r="AK29" s="75">
-        <v>8</v>
+        <v>6480</v>
       </c>
       <c r="AL29" s="77">
-        <v>1641</v>
+        <v>1292041</v>
       </c>
     </row>
     <row r="30">
@@ -4761,94 +4761,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>328</v>
+        <v>243607</v>
       </c>
       <c r="C30" s="7">
-        <v>263</v>
+        <v>194420</v>
       </c>
       <c r="D30" s="9">
-        <v>65</v>
+        <v>49187</v>
       </c>
       <c r="E30" s="11">
-        <v>1128</v>
+        <v>833701</v>
       </c>
       <c r="F30" s="13">
-        <v>1146</v>
+        <v>847912</v>
       </c>
       <c r="G30" s="15">
-        <v>-18</v>
+        <v>-14211</v>
       </c>
       <c r="H30" s="17">
-        <v>63</v>
+        <v>46095</v>
       </c>
       <c r="I30" s="19">
-        <v>114</v>
+        <v>83742</v>
       </c>
       <c r="J30" s="21">
-        <v>-51</v>
+        <v>-37648</v>
       </c>
       <c r="K30" s="23">
-        <v>9</v>
+        <v>6573</v>
       </c>
       <c r="L30" s="25">
-        <v>11</v>
+        <v>8283</v>
       </c>
       <c r="M30" s="27">
-        <v>-2</v>
+        <v>-1710</v>
       </c>
       <c r="N30" s="29">
-        <v>6</v>
+        <v>4016</v>
       </c>
       <c r="O30" s="31">
-        <v>13</v>
+        <v>9223</v>
       </c>
       <c r="P30" s="33">
-        <v>-7</v>
+        <v>-5207</v>
       </c>
       <c r="Q30" s="35">
-        <v>8</v>
+        <v>6095</v>
       </c>
       <c r="R30" s="37">
-        <v>15</v>
+        <v>11008</v>
       </c>
       <c r="S30" s="39">
-        <v>-7</v>
+        <v>-4912</v>
       </c>
       <c r="T30" s="41">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="U30" s="43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V30" s="45">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="W30" s="47">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X30" s="49">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="Y30" s="51">
-        <v>0</v>
+        <v>-166</v>
       </c>
       <c r="Z30" s="53">
-        <v>30</v>
+        <v>21726</v>
       </c>
       <c r="AA30" s="55">
-        <v>58</v>
+        <v>42512</v>
       </c>
       <c r="AB30" s="57">
-        <v>-28</v>
+        <v>-20786</v>
       </c>
       <c r="AC30" s="59">
-        <v>10</v>
+        <v>7307</v>
       </c>
       <c r="AD30" s="61">
-        <v>17</v>
+        <v>12473</v>
       </c>
       <c r="AE30" s="63">
-        <v>-7</v>
+        <v>-5166</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4860,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>10</v>
+        <v>7228</v>
       </c>
       <c r="AJ30" s="73">
-        <v>6</v>
+        <v>4557</v>
       </c>
       <c r="AK30" s="75">
-        <v>4</v>
+        <v>2671</v>
       </c>
       <c r="AL30" s="77">
-        <v>1529</v>
+        <v>1130631</v>
       </c>
     </row>
     <row r="31">
@@ -4877,94 +4877,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>337</v>
+        <v>217286</v>
       </c>
       <c r="C31" s="7">
-        <v>300</v>
+        <v>200974</v>
       </c>
       <c r="D31" s="9">
-        <v>36</v>
+        <v>16312</v>
       </c>
       <c r="E31" s="11">
-        <v>1650</v>
+        <v>1087889</v>
       </c>
       <c r="F31" s="13">
-        <v>1626</v>
+        <v>1067819</v>
       </c>
       <c r="G31" s="15">
-        <v>24</v>
+        <v>20070</v>
       </c>
       <c r="H31" s="17">
-        <v>82</v>
+        <v>53422</v>
       </c>
       <c r="I31" s="19">
-        <v>146</v>
+        <v>92729</v>
       </c>
       <c r="J31" s="21">
-        <v>-64</v>
+        <v>-39307</v>
       </c>
       <c r="K31" s="23">
-        <v>15</v>
+        <v>9519</v>
       </c>
       <c r="L31" s="25">
-        <v>14</v>
+        <v>9254</v>
       </c>
       <c r="M31" s="27">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N31" s="29">
-        <v>7</v>
+        <v>4580</v>
       </c>
       <c r="O31" s="31">
-        <v>22</v>
+        <v>13472</v>
       </c>
       <c r="P31" s="33">
-        <v>-15</v>
+        <v>-8892</v>
       </c>
       <c r="Q31" s="35">
-        <v>20</v>
+        <v>12510</v>
       </c>
       <c r="R31" s="37">
-        <v>47</v>
+        <v>29011</v>
       </c>
       <c r="S31" s="39">
-        <v>-28</v>
+        <v>-16501</v>
       </c>
       <c r="T31" s="41">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="U31" s="43">
-        <v>1</v>
+        <v>726</v>
       </c>
       <c r="V31" s="45">
-        <v>-1</v>
+        <v>-348</v>
       </c>
       <c r="W31" s="47">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="X31" s="49">
-        <v>1</v>
+        <v>638</v>
       </c>
       <c r="Y31" s="51">
-        <v>0</v>
+        <v>-299</v>
       </c>
       <c r="Z31" s="53">
-        <v>33</v>
+        <v>22381</v>
       </c>
       <c r="AA31" s="55">
-        <v>46</v>
+        <v>30108</v>
       </c>
       <c r="AB31" s="57">
-        <v>-12</v>
+        <v>-7727</v>
       </c>
       <c r="AC31" s="59">
-        <v>6</v>
+        <v>3715</v>
       </c>
       <c r="AD31" s="61">
-        <v>15</v>
+        <v>9520</v>
       </c>
       <c r="AE31" s="63">
-        <v>-9</v>
+        <v>-5804</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>18</v>
+        <v>12269</v>
       </c>
       <c r="AJ31" s="73">
-        <v>14</v>
+        <v>9344</v>
       </c>
       <c r="AK31" s="75">
-        <v>4</v>
+        <v>2925</v>
       </c>
       <c r="AL31" s="77">
-        <v>2086</v>
+        <v>1370866</v>
       </c>
     </row>
     <row r="32">
@@ -4993,94 +4993,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>454</v>
+        <v>233949</v>
       </c>
       <c r="C32" s="7">
-        <v>375</v>
+        <v>194854</v>
       </c>
       <c r="D32" s="9">
-        <v>79</v>
+        <v>39095</v>
       </c>
       <c r="E32" s="11">
-        <v>1699</v>
+        <v>883961</v>
       </c>
       <c r="F32" s="13">
-        <v>1706</v>
+        <v>878052</v>
       </c>
       <c r="G32" s="15">
-        <v>-7</v>
+        <v>5909</v>
       </c>
       <c r="H32" s="17">
-        <v>137</v>
+        <v>66935</v>
       </c>
       <c r="I32" s="19">
-        <v>209</v>
+        <v>111965</v>
       </c>
       <c r="J32" s="21">
-        <v>-72</v>
+        <v>-45031</v>
       </c>
       <c r="K32" s="23">
-        <v>13</v>
+        <v>5867</v>
       </c>
       <c r="L32" s="25">
-        <v>15</v>
+        <v>7418</v>
       </c>
       <c r="M32" s="27">
-        <v>-2</v>
+        <v>-1552</v>
       </c>
       <c r="N32" s="29">
-        <v>18</v>
+        <v>9077</v>
       </c>
       <c r="O32" s="31">
-        <v>21</v>
+        <v>11378</v>
       </c>
       <c r="P32" s="33">
-        <v>-3</v>
+        <v>-2301</v>
       </c>
       <c r="Q32" s="35">
-        <v>24</v>
+        <v>11361</v>
       </c>
       <c r="R32" s="37">
-        <v>46</v>
+        <v>24851</v>
       </c>
       <c r="S32" s="39">
-        <v>-23</v>
+        <v>-13490</v>
       </c>
       <c r="T32" s="41">
-        <v>1</v>
+        <v>522</v>
       </c>
       <c r="U32" s="43">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="V32" s="45">
-        <v>-1</v>
+        <v>-291</v>
       </c>
       <c r="W32" s="47">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="X32" s="49">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="Y32" s="51">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z32" s="53">
-        <v>36</v>
+        <v>18334</v>
       </c>
       <c r="AA32" s="55">
-        <v>61</v>
+        <v>32075</v>
       </c>
       <c r="AB32" s="57">
-        <v>-25</v>
+        <v>-13741</v>
       </c>
       <c r="AC32" s="59">
-        <v>45</v>
+        <v>21469</v>
       </c>
       <c r="AD32" s="61">
-        <v>63</v>
+        <v>35141</v>
       </c>
       <c r="AE32" s="63">
-        <v>-18</v>
+        <v>-13672</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5092,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>20</v>
+        <v>10261</v>
       </c>
       <c r="AJ32" s="73">
-        <v>20</v>
+        <v>10233</v>
       </c>
       <c r="AK32" s="75">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL32" s="77">
-        <v>2310</v>
+        <v>1195106</v>
       </c>
     </row>
     <row r="33">
@@ -5109,94 +5109,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>370</v>
+        <v>158931</v>
       </c>
       <c r="C33" s="7">
-        <v>367</v>
+        <v>159154</v>
       </c>
       <c r="D33" s="9">
-        <v>3</v>
+        <v>-224</v>
       </c>
       <c r="E33" s="11">
-        <v>2940</v>
+        <v>1283971</v>
       </c>
       <c r="F33" s="13">
-        <v>2816</v>
+        <v>1229898</v>
       </c>
       <c r="G33" s="15">
-        <v>125</v>
+        <v>54073</v>
       </c>
       <c r="H33" s="17">
-        <v>175</v>
+        <v>75097</v>
       </c>
       <c r="I33" s="19">
-        <v>297</v>
+        <v>127000</v>
       </c>
       <c r="J33" s="21">
-        <v>-122</v>
+        <v>-51902</v>
       </c>
       <c r="K33" s="23">
-        <v>13</v>
+        <v>5529</v>
       </c>
       <c r="L33" s="25">
-        <v>21</v>
+        <v>8969</v>
       </c>
       <c r="M33" s="27">
-        <v>-8</v>
+        <v>-3440</v>
       </c>
       <c r="N33" s="29">
-        <v>8</v>
+        <v>3410</v>
       </c>
       <c r="O33" s="31">
-        <v>21</v>
+        <v>8727</v>
       </c>
       <c r="P33" s="33">
-        <v>-13</v>
+        <v>-5316</v>
       </c>
       <c r="Q33" s="35">
-        <v>47</v>
+        <v>20690</v>
       </c>
       <c r="R33" s="37">
-        <v>51</v>
+        <v>21898</v>
       </c>
       <c r="S33" s="39">
-        <v>-3</v>
+        <v>-1209</v>
       </c>
       <c r="T33" s="41">
+        <v>352</v>
+      </c>
+      <c r="U33" s="43">
+        <v>813</v>
+      </c>
+      <c r="V33" s="45">
+        <v>-462</v>
+      </c>
+      <c r="W33" s="47">
         <v>1</v>
       </c>
-      <c r="U33" s="43">
-        <v>2</v>
-      </c>
-      <c r="V33" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W33" s="47">
-        <v>0</v>
-      </c>
       <c r="X33" s="49">
-        <v>5</v>
+        <v>1876</v>
       </c>
       <c r="Y33" s="51">
-        <v>-5</v>
+        <v>-1876</v>
       </c>
       <c r="Z33" s="53">
-        <v>28</v>
+        <v>12466</v>
       </c>
       <c r="AA33" s="55">
-        <v>117</v>
+        <v>50074</v>
       </c>
       <c r="AB33" s="57">
-        <v>-89</v>
+        <v>-37607</v>
       </c>
       <c r="AC33" s="59">
-        <v>77</v>
+        <v>32649</v>
       </c>
       <c r="AD33" s="61">
-        <v>81</v>
+        <v>34643</v>
       </c>
       <c r="AE33" s="63">
-        <v>-3</v>
+        <v>-1993</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5208,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>22</v>
+        <v>9459</v>
       </c>
       <c r="AJ33" s="73">
-        <v>27</v>
+        <v>11406</v>
       </c>
       <c r="AK33" s="75">
-        <v>-5</v>
+        <v>-1947</v>
       </c>
       <c r="AL33" s="77">
-        <v>3506</v>
+        <v>1527458</v>
       </c>
     </row>
     <row r="34">
@@ -5225,94 +5225,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>340</v>
+        <v>87765</v>
       </c>
       <c r="C34" s="7">
-        <v>368</v>
+        <v>97902</v>
       </c>
       <c r="D34" s="9">
-        <v>-28</v>
+        <v>-10136</v>
       </c>
       <c r="E34" s="11">
-        <v>1734</v>
+        <v>460470</v>
       </c>
       <c r="F34" s="13">
-        <v>1606</v>
+        <v>425475</v>
       </c>
       <c r="G34" s="15">
-        <v>127</v>
+        <v>34996</v>
       </c>
       <c r="H34" s="17">
-        <v>160</v>
+        <v>40948</v>
       </c>
       <c r="I34" s="19">
-        <v>253</v>
+        <v>64293</v>
       </c>
       <c r="J34" s="21">
-        <v>-93</v>
+        <v>-23344</v>
       </c>
       <c r="K34" s="23">
-        <v>23</v>
+        <v>6052</v>
       </c>
       <c r="L34" s="25">
-        <v>59</v>
+        <v>15321</v>
       </c>
       <c r="M34" s="27">
-        <v>-36</v>
+        <v>-9270</v>
       </c>
       <c r="N34" s="29">
-        <v>11</v>
+        <v>2760</v>
       </c>
       <c r="O34" s="31">
-        <v>23</v>
+        <v>5439</v>
       </c>
       <c r="P34" s="33">
-        <v>-13</v>
+        <v>-2680</v>
       </c>
       <c r="Q34" s="35">
-        <v>45</v>
+        <v>11601</v>
       </c>
       <c r="R34" s="37">
-        <v>45</v>
+        <v>11341</v>
       </c>
       <c r="S34" s="39">
-        <v>-1</v>
+        <v>260</v>
       </c>
       <c r="T34" s="41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U34" s="43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V34" s="45">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W34" s="47">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="X34" s="49">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="Y34" s="51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z34" s="53">
-        <v>61</v>
+        <v>15108</v>
       </c>
       <c r="AA34" s="55">
-        <v>103</v>
+        <v>26383</v>
       </c>
       <c r="AB34" s="57">
-        <v>-42</v>
+        <v>-11275</v>
       </c>
       <c r="AC34" s="59">
-        <v>20</v>
+        <v>5214</v>
       </c>
       <c r="AD34" s="61">
-        <v>22</v>
+        <v>5650</v>
       </c>
       <c r="AE34" s="63">
-        <v>-2</v>
+        <v>-435</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5324,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>27</v>
+        <v>7077</v>
       </c>
       <c r="AJ34" s="73">
-        <v>33</v>
+        <v>8592</v>
       </c>
       <c r="AK34" s="75">
-        <v>-6</v>
+        <v>-1515</v>
       </c>
       <c r="AL34" s="77">
-        <v>2260</v>
+        <v>596261</v>
       </c>
     </row>
     <row r="35">
@@ -5341,94 +5341,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>264</v>
+        <v>51885</v>
       </c>
       <c r="C35" s="7">
-        <v>159</v>
+        <v>31781</v>
       </c>
       <c r="D35" s="9">
-        <v>106</v>
+        <v>20104</v>
       </c>
       <c r="E35" s="11">
-        <v>813</v>
+        <v>161781</v>
       </c>
       <c r="F35" s="13">
-        <v>762</v>
+        <v>151186</v>
       </c>
       <c r="G35" s="15">
-        <v>51</v>
+        <v>10595</v>
       </c>
       <c r="H35" s="17">
-        <v>134</v>
+        <v>26956</v>
       </c>
       <c r="I35" s="19">
-        <v>297</v>
+        <v>59082</v>
       </c>
       <c r="J35" s="21">
-        <v>-163</v>
+        <v>-32126</v>
       </c>
       <c r="K35" s="23">
-        <v>24</v>
+        <v>4754</v>
       </c>
       <c r="L35" s="25">
-        <v>43</v>
+        <v>8393</v>
       </c>
       <c r="M35" s="27">
-        <v>-20</v>
+        <v>-3639</v>
       </c>
       <c r="N35" s="29">
-        <v>14</v>
+        <v>2819</v>
       </c>
       <c r="O35" s="31">
-        <v>16</v>
+        <v>3135</v>
       </c>
       <c r="P35" s="33">
-        <v>-2</v>
+        <v>-316</v>
       </c>
       <c r="Q35" s="35">
-        <v>43</v>
+        <v>8646</v>
       </c>
       <c r="R35" s="37">
-        <v>67</v>
+        <v>13418</v>
       </c>
       <c r="S35" s="39">
-        <v>-24</v>
+        <v>-4772</v>
       </c>
       <c r="T35" s="41">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="U35" s="43">
-        <v>4</v>
+        <v>827</v>
       </c>
       <c r="V35" s="45">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="W35" s="47">
-        <v>2</v>
+        <v>443</v>
       </c>
       <c r="X35" s="49">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="Y35" s="51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z35" s="53">
-        <v>28</v>
+        <v>5407</v>
       </c>
       <c r="AA35" s="55">
-        <v>141</v>
+        <v>28083</v>
       </c>
       <c r="AB35" s="57">
-        <v>-113</v>
+        <v>-22676</v>
       </c>
       <c r="AC35" s="59">
-        <v>20</v>
+        <v>4107</v>
       </c>
       <c r="AD35" s="61">
-        <v>24</v>
+        <v>4795</v>
       </c>
       <c r="AE35" s="63">
-        <v>-4</v>
+        <v>-689</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5440,16 +5440,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>19</v>
+        <v>3891</v>
       </c>
       <c r="AJ35" s="73">
-        <v>12</v>
+        <v>2464</v>
       </c>
       <c r="AK35" s="75">
-        <v>7</v>
+        <v>1426</v>
       </c>
       <c r="AL35" s="77">
-        <v>1231</v>
+        <v>244513</v>
       </c>
     </row>
     <row r="36">
@@ -5457,94 +5457,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>312</v>
+        <v>54989</v>
       </c>
       <c r="C36" s="7">
-        <v>160</v>
+        <v>28005</v>
       </c>
       <c r="D36" s="9">
-        <v>152</v>
+        <v>26983</v>
       </c>
       <c r="E36" s="11">
-        <v>981</v>
+        <v>170587</v>
       </c>
       <c r="F36" s="13">
-        <v>1125</v>
+        <v>196327</v>
       </c>
       <c r="G36" s="15">
-        <v>-144</v>
+        <v>-25740</v>
       </c>
       <c r="H36" s="17">
-        <v>270</v>
+        <v>47370</v>
       </c>
       <c r="I36" s="19">
-        <v>285</v>
+        <v>49760</v>
       </c>
       <c r="J36" s="21">
-        <v>-15</v>
+        <v>-2390</v>
       </c>
       <c r="K36" s="23">
-        <v>18</v>
+        <v>3167</v>
       </c>
       <c r="L36" s="25">
-        <v>20</v>
+        <v>3328</v>
       </c>
       <c r="M36" s="27">
-        <v>-1</v>
+        <v>-161</v>
       </c>
       <c r="N36" s="29">
-        <v>40</v>
+        <v>6867</v>
       </c>
       <c r="O36" s="31">
-        <v>36</v>
+        <v>6407</v>
       </c>
       <c r="P36" s="33">
-        <v>4</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="35">
+        <v>13403</v>
+      </c>
+      <c r="R36" s="37">
+        <v>15229</v>
+      </c>
+      <c r="S36" s="39">
+        <v>-1826</v>
+      </c>
+      <c r="T36" s="41">
+        <v>0</v>
+      </c>
+      <c r="U36" s="43">
+        <v>0</v>
+      </c>
+      <c r="V36" s="45">
+        <v>0</v>
+      </c>
+      <c r="W36" s="47">
         <v>77</v>
       </c>
-      <c r="R36" s="37">
-        <v>88</v>
-      </c>
-      <c r="S36" s="39">
-        <v>-11</v>
-      </c>
-      <c r="T36" s="41">
-        <v>0</v>
-      </c>
-      <c r="U36" s="43">
-        <v>0</v>
-      </c>
-      <c r="V36" s="45">
-        <v>0</v>
-      </c>
-      <c r="W36" s="47">
-        <v>1</v>
-      </c>
       <c r="X36" s="49">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y36" s="51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z36" s="53">
-        <v>100</v>
+        <v>17835</v>
       </c>
       <c r="AA36" s="55">
-        <v>118</v>
+        <v>20596</v>
       </c>
       <c r="AB36" s="57">
-        <v>-18</v>
+        <v>-2762</v>
       </c>
       <c r="AC36" s="59">
-        <v>35</v>
+        <v>6021</v>
       </c>
       <c r="AD36" s="61">
-        <v>24</v>
+        <v>4172</v>
       </c>
       <c r="AE36" s="63">
-        <v>11</v>
+        <v>1849</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>14</v>
+        <v>2542</v>
       </c>
       <c r="AJ36" s="73">
-        <v>8</v>
+        <v>1395</v>
       </c>
       <c r="AK36" s="75">
-        <v>6</v>
+        <v>1147</v>
       </c>
       <c r="AL36" s="77">
-        <v>1578</v>
+        <v>275487</v>
       </c>
     </row>
     <row r="37">
@@ -5573,94 +5573,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>134</v>
+        <v>19201</v>
       </c>
       <c r="C37" s="7">
-        <v>123</v>
+        <v>17745</v>
       </c>
       <c r="D37" s="9">
-        <v>11</v>
+        <v>1456</v>
       </c>
       <c r="E37" s="11">
-        <v>745</v>
+        <v>107649</v>
       </c>
       <c r="F37" s="13">
-        <v>744</v>
+        <v>107518</v>
       </c>
       <c r="G37" s="15">
+        <v>131</v>
+      </c>
+      <c r="H37" s="17">
+        <v>33051</v>
+      </c>
+      <c r="I37" s="19">
+        <v>34525</v>
+      </c>
+      <c r="J37" s="21">
+        <v>-1474</v>
+      </c>
+      <c r="K37" s="23">
+        <v>7790</v>
+      </c>
+      <c r="L37" s="25">
+        <v>2252</v>
+      </c>
+      <c r="M37" s="27">
+        <v>5537</v>
+      </c>
+      <c r="N37" s="29">
+        <v>2253</v>
+      </c>
+      <c r="O37" s="31">
+        <v>4847</v>
+      </c>
+      <c r="P37" s="33">
+        <v>-2594</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>6178</v>
+      </c>
+      <c r="R37" s="37">
+        <v>12144</v>
+      </c>
+      <c r="S37" s="39">
+        <v>-5966</v>
+      </c>
+      <c r="T37" s="41">
+        <v>0</v>
+      </c>
+      <c r="U37" s="43">
+        <v>0</v>
+      </c>
+      <c r="V37" s="45">
+        <v>0</v>
+      </c>
+      <c r="W37" s="47">
+        <v>202</v>
+      </c>
+      <c r="X37" s="49">
         <v>1</v>
       </c>
-      <c r="H37" s="17">
-        <v>229</v>
-      </c>
-      <c r="I37" s="19">
-        <v>240</v>
-      </c>
-      <c r="J37" s="21">
-        <v>-11</v>
-      </c>
-      <c r="K37" s="23">
-        <v>55</v>
-      </c>
-      <c r="L37" s="25">
-        <v>16</v>
-      </c>
-      <c r="M37" s="27">
-        <v>39</v>
-      </c>
-      <c r="N37" s="29">
-        <v>15</v>
-      </c>
-      <c r="O37" s="31">
-        <v>34</v>
-      </c>
-      <c r="P37" s="33">
-        <v>-18</v>
-      </c>
-      <c r="Q37" s="35">
-        <v>43</v>
-      </c>
-      <c r="R37" s="37">
-        <v>85</v>
-      </c>
-      <c r="S37" s="39">
-        <v>-42</v>
-      </c>
-      <c r="T37" s="41">
-        <v>0</v>
-      </c>
-      <c r="U37" s="43">
-        <v>0</v>
-      </c>
-      <c r="V37" s="45">
-        <v>0</v>
-      </c>
-      <c r="W37" s="47">
-        <v>1</v>
-      </c>
-      <c r="X37" s="49">
-        <v>0</v>
-      </c>
       <c r="Y37" s="51">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="Z37" s="53">
-        <v>81</v>
+        <v>11819</v>
       </c>
       <c r="AA37" s="55">
-        <v>83</v>
+        <v>12057</v>
       </c>
       <c r="AB37" s="57">
-        <v>-2</v>
+        <v>-238</v>
       </c>
       <c r="AC37" s="59">
-        <v>33</v>
+        <v>4810</v>
       </c>
       <c r="AD37" s="61">
-        <v>23</v>
+        <v>3224</v>
       </c>
       <c r="AE37" s="63">
-        <v>11</v>
+        <v>1586</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5672,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>16</v>
+        <v>2294</v>
       </c>
       <c r="AJ37" s="73">
-        <v>17</v>
+        <v>2407</v>
       </c>
       <c r="AK37" s="75">
-        <v>-1</v>
+        <v>-113</v>
       </c>
       <c r="AL37" s="77">
-        <v>1123</v>
+        <v>162194</v>
       </c>
     </row>
     <row r="38">
@@ -5689,94 +5689,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>106</v>
+        <v>11777</v>
       </c>
       <c r="C38" s="7">
-        <v>121</v>
+        <v>13894</v>
       </c>
       <c r="D38" s="9">
-        <v>-15</v>
+        <v>-2117</v>
       </c>
       <c r="E38" s="11">
-        <v>840</v>
+        <v>96725</v>
       </c>
       <c r="F38" s="13">
-        <v>808</v>
+        <v>94174</v>
       </c>
       <c r="G38" s="15">
-        <v>32</v>
+        <v>2551</v>
       </c>
       <c r="H38" s="17">
-        <v>208</v>
+        <v>24550</v>
       </c>
       <c r="I38" s="19">
-        <v>223</v>
+        <v>24785</v>
       </c>
       <c r="J38" s="21">
-        <v>-15</v>
+        <v>-234</v>
       </c>
       <c r="K38" s="23">
-        <v>30</v>
+        <v>3647</v>
       </c>
       <c r="L38" s="25">
-        <v>22</v>
+        <v>2312</v>
       </c>
       <c r="M38" s="27">
+        <v>1336</v>
+      </c>
+      <c r="N38" s="29">
+        <v>4316</v>
+      </c>
+      <c r="O38" s="31">
+        <v>774</v>
+      </c>
+      <c r="P38" s="33">
+        <v>3542</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>7733</v>
+      </c>
+      <c r="R38" s="37">
+        <v>17588</v>
+      </c>
+      <c r="S38" s="39">
+        <v>-9855</v>
+      </c>
+      <c r="T38" s="41">
+        <v>0</v>
+      </c>
+      <c r="U38" s="43">
         <v>8</v>
       </c>
-      <c r="N38" s="29">
-        <v>37</v>
-      </c>
-      <c r="O38" s="31">
-        <v>7</v>
-      </c>
-      <c r="P38" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="35">
-        <v>67</v>
-      </c>
-      <c r="R38" s="37">
-        <v>156</v>
-      </c>
-      <c r="S38" s="39">
-        <v>-90</v>
-      </c>
-      <c r="T38" s="41">
-        <v>0</v>
-      </c>
-      <c r="U38" s="43">
-        <v>0</v>
-      </c>
       <c r="V38" s="45">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="W38" s="47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X38" s="49">
         <v>0</v>
       </c>
       <c r="Y38" s="51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="53">
-        <v>47</v>
+        <v>5459</v>
       </c>
       <c r="AA38" s="55">
-        <v>24</v>
+        <v>2543</v>
       </c>
       <c r="AB38" s="57">
-        <v>23</v>
+        <v>2916</v>
       </c>
       <c r="AC38" s="59">
-        <v>28</v>
+        <v>3345</v>
       </c>
       <c r="AD38" s="61">
-        <v>14</v>
+        <v>1560</v>
       </c>
       <c r="AE38" s="63">
-        <v>14</v>
+        <v>1785</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5788,16 +5788,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>7</v>
+        <v>823</v>
       </c>
       <c r="AJ38" s="73">
-        <v>9</v>
+        <v>1022</v>
       </c>
       <c r="AK38" s="75">
-        <v>-1</v>
+        <v>-199</v>
       </c>
       <c r="AL38" s="77">
-        <v>1161</v>
+        <v>133875</v>
       </c>
     </row>
     <row r="39">
@@ -5805,94 +5805,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>68</v>
+        <v>7156</v>
       </c>
       <c r="C39" s="7">
-        <v>77</v>
+        <v>8158</v>
       </c>
       <c r="D39" s="9">
-        <v>-10</v>
+        <v>-1002</v>
       </c>
       <c r="E39" s="11">
-        <v>515</v>
+        <v>53977</v>
       </c>
       <c r="F39" s="13">
-        <v>365</v>
+        <v>38791</v>
       </c>
       <c r="G39" s="15">
-        <v>151</v>
+        <v>15186</v>
       </c>
       <c r="H39" s="17">
-        <v>80</v>
+        <v>8558</v>
       </c>
       <c r="I39" s="19">
-        <v>226</v>
+        <v>23208</v>
       </c>
       <c r="J39" s="21">
-        <v>-146</v>
+        <v>-14650</v>
       </c>
       <c r="K39" s="23">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="L39" s="25">
-        <v>36</v>
+        <v>3638</v>
       </c>
       <c r="M39" s="27">
-        <v>-34</v>
+        <v>-3478</v>
       </c>
       <c r="N39" s="29">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="O39" s="31">
-        <v>13</v>
+        <v>1305</v>
       </c>
       <c r="P39" s="33">
-        <v>-9</v>
+        <v>-903</v>
       </c>
       <c r="Q39" s="35">
-        <v>20</v>
+        <v>2150</v>
       </c>
       <c r="R39" s="37">
-        <v>110</v>
+        <v>11363</v>
       </c>
       <c r="S39" s="39">
-        <v>-90</v>
+        <v>-9213</v>
       </c>
       <c r="T39" s="41">
         <v>0</v>
       </c>
       <c r="U39" s="43">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V39" s="45">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="W39" s="47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X39" s="49">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="Y39" s="51">
-        <v>-3</v>
+        <v>-276</v>
       </c>
       <c r="Z39" s="53">
-        <v>49</v>
+        <v>5168</v>
       </c>
       <c r="AA39" s="55">
-        <v>50</v>
+        <v>5145</v>
       </c>
       <c r="AB39" s="57">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="AC39" s="59">
-        <v>6</v>
+        <v>648</v>
       </c>
       <c r="AD39" s="61">
-        <v>14</v>
+        <v>1410</v>
       </c>
       <c r="AE39" s="63">
-        <v>-8</v>
+        <v>-761</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5904,16 +5904,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>8</v>
+        <v>860</v>
       </c>
       <c r="AJ39" s="73">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="AK39" s="75">
-        <v>5</v>
+        <v>466</v>
       </c>
       <c r="AL39" s="77">
-        <v>671</v>
+        <v>70551</v>
       </c>
     </row>
     <row r="40">
@@ -5921,94 +5921,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
+        <v>8511</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8768</v>
+      </c>
+      <c r="D40" s="9">
+        <v>-256</v>
+      </c>
+      <c r="E40" s="11">
+        <v>37823</v>
+      </c>
+      <c r="F40" s="13">
+        <v>28262</v>
+      </c>
+      <c r="G40" s="15">
+        <v>9561</v>
+      </c>
+      <c r="H40" s="17">
+        <v>7532</v>
+      </c>
+      <c r="I40" s="19">
+        <v>16853</v>
+      </c>
+      <c r="J40" s="21">
+        <v>-9321</v>
+      </c>
+      <c r="K40" s="23">
+        <v>414</v>
+      </c>
+      <c r="L40" s="25">
+        <v>1612</v>
+      </c>
+      <c r="M40" s="27">
+        <v>-1198</v>
+      </c>
+      <c r="N40" s="29">
+        <v>211</v>
+      </c>
+      <c r="O40" s="31">
+        <v>2636</v>
+      </c>
+      <c r="P40" s="33">
+        <v>-2426</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>3895</v>
+      </c>
+      <c r="R40" s="37">
+        <v>6903</v>
+      </c>
+      <c r="S40" s="39">
+        <v>-3008</v>
+      </c>
+      <c r="T40" s="41">
+        <v>41</v>
+      </c>
+      <c r="U40" s="43">
+        <v>103</v>
+      </c>
+      <c r="V40" s="45">
+        <v>-62</v>
+      </c>
+      <c r="W40" s="47">
+        <v>50</v>
+      </c>
+      <c r="X40" s="49">
         <v>71</v>
       </c>
-      <c r="C40" s="7">
-        <v>73</v>
-      </c>
-      <c r="D40" s="9">
-        <v>-2</v>
-      </c>
-      <c r="E40" s="11">
-        <v>319</v>
-      </c>
-      <c r="F40" s="13">
-        <v>234</v>
-      </c>
-      <c r="G40" s="15">
-        <v>85</v>
-      </c>
-      <c r="H40" s="17">
-        <v>60</v>
-      </c>
-      <c r="I40" s="19">
-        <v>144</v>
-      </c>
-      <c r="J40" s="21">
-        <v>-84</v>
-      </c>
-      <c r="K40" s="23">
-        <v>3</v>
-      </c>
-      <c r="L40" s="25">
-        <v>14</v>
-      </c>
-      <c r="M40" s="27">
-        <v>-10</v>
-      </c>
-      <c r="N40" s="29">
-        <v>2</v>
-      </c>
-      <c r="O40" s="31">
-        <v>23</v>
-      </c>
-      <c r="P40" s="33">
+      <c r="Y40" s="51">
         <v>-21</v>
       </c>
-      <c r="Q40" s="35">
-        <v>31</v>
-      </c>
-      <c r="R40" s="37">
-        <v>58</v>
-      </c>
-      <c r="S40" s="39">
-        <v>-28</v>
-      </c>
-      <c r="T40" s="41">
-        <v>0</v>
-      </c>
-      <c r="U40" s="43">
-        <v>1</v>
-      </c>
-      <c r="V40" s="45">
-        <v>0</v>
-      </c>
-      <c r="W40" s="47">
-        <v>0</v>
-      </c>
-      <c r="X40" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="51">
-        <v>0</v>
-      </c>
       <c r="Z40" s="53">
-        <v>10</v>
+        <v>1183</v>
       </c>
       <c r="AA40" s="55">
-        <v>27</v>
+        <v>3139</v>
       </c>
       <c r="AB40" s="57">
-        <v>-17</v>
+        <v>-1956</v>
       </c>
       <c r="AC40" s="59">
-        <v>14</v>
+        <v>1738</v>
       </c>
       <c r="AD40" s="61">
-        <v>21</v>
+        <v>2389</v>
       </c>
       <c r="AE40" s="63">
-        <v>-7</v>
+        <v>-650</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -6020,16 +6020,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="AJ40" s="73">
-        <v>3</v>
+        <v>343</v>
       </c>
       <c r="AK40" s="75">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL40" s="77">
-        <v>453</v>
+        <v>54226</v>
       </c>
     </row>
     <row r="41">
@@ -6037,94 +6037,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>48</v>
+        <v>6060</v>
       </c>
       <c r="C41" s="7">
-        <v>37</v>
+        <v>4669</v>
       </c>
       <c r="D41" s="9">
-        <v>11</v>
+        <v>1391</v>
       </c>
       <c r="E41" s="11">
-        <v>170</v>
+        <v>21277</v>
       </c>
       <c r="F41" s="13">
-        <v>120</v>
+        <v>15116</v>
       </c>
       <c r="G41" s="15">
-        <v>50</v>
+        <v>6161</v>
       </c>
       <c r="H41" s="17">
-        <v>25</v>
+        <v>3274</v>
       </c>
       <c r="I41" s="19">
-        <v>88</v>
+        <v>11043</v>
       </c>
       <c r="J41" s="21">
-        <v>-63</v>
+        <v>-7769</v>
       </c>
       <c r="K41" s="23">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="L41" s="25">
-        <v>12</v>
+        <v>1536</v>
       </c>
       <c r="M41" s="27">
-        <v>-9</v>
+        <v>-1112</v>
       </c>
       <c r="N41" s="29">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="O41" s="31">
-        <v>22</v>
+        <v>2837</v>
       </c>
       <c r="P41" s="33">
-        <v>-20</v>
+        <v>-2537</v>
       </c>
       <c r="Q41" s="35">
-        <v>15</v>
+        <v>1929</v>
       </c>
       <c r="R41" s="37">
+        <v>3021</v>
+      </c>
+      <c r="S41" s="39">
+        <v>-1092</v>
+      </c>
+      <c r="T41" s="41">
+        <v>52</v>
+      </c>
+      <c r="U41" s="43">
+        <v>27</v>
+      </c>
+      <c r="V41" s="45">
+        <v>26</v>
+      </c>
+      <c r="W41" s="47">
+        <v>66</v>
+      </c>
+      <c r="X41" s="49">
         <v>24</v>
       </c>
-      <c r="S41" s="39">
-        <v>-9</v>
-      </c>
-      <c r="T41" s="41">
-        <v>0</v>
-      </c>
-      <c r="U41" s="43">
-        <v>0</v>
-      </c>
-      <c r="V41" s="45">
-        <v>0</v>
-      </c>
-      <c r="W41" s="47">
-        <v>1</v>
-      </c>
-      <c r="X41" s="49">
-        <v>0</v>
-      </c>
       <c r="Y41" s="51">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z41" s="53">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="AA41" s="55">
-        <v>25</v>
+        <v>3141</v>
       </c>
       <c r="AB41" s="57">
-        <v>-24</v>
+        <v>-2975</v>
       </c>
       <c r="AC41" s="59">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="AD41" s="61">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="AE41" s="63">
-        <v>-1</v>
+        <v>-121</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>4</v>
+        <v>491</v>
       </c>
       <c r="AJ41" s="73">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="AK41" s="75">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="AL41" s="77">
-        <v>247</v>
+        <v>31101</v>
       </c>
     </row>
     <row r="42">
@@ -6153,94 +6153,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>29</v>
+        <v>3981</v>
       </c>
       <c r="C42" s="7">
-        <v>54</v>
+        <v>7271</v>
       </c>
       <c r="D42" s="9">
-        <v>-24</v>
+        <v>-3290</v>
       </c>
       <c r="E42" s="11">
-        <v>166</v>
+        <v>22554</v>
       </c>
       <c r="F42" s="13">
-        <v>143</v>
+        <v>19440</v>
       </c>
       <c r="G42" s="15">
-        <v>23</v>
+        <v>3114</v>
       </c>
       <c r="H42" s="17">
-        <v>50</v>
+        <v>6846</v>
       </c>
       <c r="I42" s="19">
-        <v>47</v>
+        <v>6378</v>
       </c>
       <c r="J42" s="21">
-        <v>3</v>
+        <v>468</v>
       </c>
       <c r="K42" s="23">
-        <v>13</v>
+        <v>1707</v>
       </c>
       <c r="L42" s="25">
-        <v>11</v>
+        <v>1467</v>
       </c>
       <c r="M42" s="27">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="N42" s="29">
-        <v>12</v>
+        <v>1657</v>
       </c>
       <c r="O42" s="31">
-        <v>21</v>
+        <v>2896</v>
       </c>
       <c r="P42" s="33">
-        <v>-9</v>
+        <v>-1239</v>
       </c>
       <c r="Q42" s="35">
-        <v>16</v>
+        <v>2161</v>
       </c>
       <c r="R42" s="37">
-        <v>10</v>
+        <v>1325</v>
       </c>
       <c r="S42" s="39">
-        <v>6</v>
+        <v>836</v>
       </c>
       <c r="T42" s="41">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U42" s="43">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="V42" s="45">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="W42" s="47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="X42" s="49">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y42" s="51">
         <v>0</v>
       </c>
       <c r="Z42" s="53">
-        <v>4</v>
+        <v>610</v>
       </c>
       <c r="AA42" s="55">
-        <v>2</v>
+        <v>296</v>
       </c>
       <c r="AB42" s="57">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="AC42" s="59">
-        <v>5</v>
+        <v>620</v>
       </c>
       <c r="AD42" s="61">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="AE42" s="63">
-        <v>3</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6252,16 +6252,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="AJ42" s="73">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="AK42" s="75">
-        <v>-2</v>
+        <v>-292</v>
       </c>
       <c r="AL42" s="77">
-        <v>247</v>
+        <v>33565</v>
       </c>
     </row>
     <row r="43">
@@ -6269,94 +6269,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>43</v>
+        <v>4948</v>
       </c>
       <c r="C43" s="7">
-        <v>47</v>
+        <v>5413</v>
       </c>
       <c r="D43" s="9">
-        <v>-4</v>
+        <v>-465</v>
       </c>
       <c r="E43" s="11">
-        <v>160</v>
+        <v>18665</v>
       </c>
       <c r="F43" s="13">
-        <v>163</v>
+        <v>19089</v>
       </c>
       <c r="G43" s="15">
+        <v>-424</v>
+      </c>
+      <c r="H43" s="17">
+        <v>6094</v>
+      </c>
+      <c r="I43" s="19">
+        <v>4736</v>
+      </c>
+      <c r="J43" s="21">
+        <v>1357</v>
+      </c>
+      <c r="K43" s="23">
+        <v>414</v>
+      </c>
+      <c r="L43" s="25">
+        <v>659</v>
+      </c>
+      <c r="M43" s="27">
+        <v>-245</v>
+      </c>
+      <c r="N43" s="29">
+        <v>617</v>
+      </c>
+      <c r="O43" s="31">
+        <v>413</v>
+      </c>
+      <c r="P43" s="33">
+        <v>204</v>
+      </c>
+      <c r="Q43" s="35">
+        <v>2070</v>
+      </c>
+      <c r="R43" s="37">
+        <v>832</v>
+      </c>
+      <c r="S43" s="39">
+        <v>1238</v>
+      </c>
+      <c r="T43" s="41">
+        <v>0</v>
+      </c>
+      <c r="U43" s="43">
+        <v>3</v>
+      </c>
+      <c r="V43" s="45">
         <v>-3</v>
       </c>
-      <c r="H43" s="17">
-        <v>52</v>
-      </c>
-      <c r="I43" s="19">
-        <v>42</v>
-      </c>
-      <c r="J43" s="21">
-        <v>10</v>
-      </c>
-      <c r="K43" s="23">
-        <v>4</v>
-      </c>
-      <c r="L43" s="25">
-        <v>5</v>
-      </c>
-      <c r="M43" s="27">
-        <v>-2</v>
-      </c>
-      <c r="N43" s="29">
-        <v>5</v>
-      </c>
-      <c r="O43" s="31">
-        <v>3</v>
-      </c>
-      <c r="P43" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="35">
-        <v>17</v>
-      </c>
-      <c r="R43" s="37">
-        <v>7</v>
-      </c>
-      <c r="S43" s="39">
-        <v>10</v>
-      </c>
-      <c r="T43" s="41">
-        <v>0</v>
-      </c>
-      <c r="U43" s="43">
-        <v>0</v>
-      </c>
-      <c r="V43" s="45">
-        <v>0</v>
-      </c>
       <c r="W43" s="47">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="X43" s="49">
         <v>0</v>
       </c>
       <c r="Y43" s="51">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="Z43" s="53">
-        <v>18</v>
+        <v>2043</v>
       </c>
       <c r="AA43" s="55">
-        <v>8</v>
+        <v>862</v>
       </c>
       <c r="AB43" s="57">
-        <v>11</v>
+        <v>1181</v>
       </c>
       <c r="AC43" s="59">
-        <v>7</v>
+        <v>868</v>
       </c>
       <c r="AD43" s="61">
-        <v>18</v>
+        <v>1966</v>
       </c>
       <c r="AE43" s="63">
-        <v>-11</v>
+        <v>-1098</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6368,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>13</v>
+        <v>1410</v>
       </c>
       <c r="AJ43" s="73">
-        <v>16</v>
+        <v>1878</v>
       </c>
       <c r="AK43" s="75">
-        <v>-3</v>
+        <v>-468</v>
       </c>
       <c r="AL43" s="77">
-        <v>268</v>
+        <v>31117</v>
       </c>
     </row>
     <row r="44">
@@ -6385,94 +6385,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>97</v>
+        <v>10567</v>
       </c>
       <c r="C44" s="7">
-        <v>109</v>
+        <v>12188</v>
       </c>
       <c r="D44" s="9">
-        <v>-13</v>
+        <v>-1621</v>
       </c>
       <c r="E44" s="11">
-        <v>202</v>
+        <v>22032</v>
       </c>
       <c r="F44" s="13">
-        <v>193</v>
+        <v>20550</v>
       </c>
       <c r="G44" s="15">
-        <v>9</v>
+        <v>1482</v>
       </c>
       <c r="H44" s="17">
-        <v>97</v>
+        <v>10252</v>
       </c>
       <c r="I44" s="19">
-        <v>96</v>
+        <v>10439</v>
       </c>
       <c r="J44" s="21">
-        <v>1</v>
+        <v>-186</v>
       </c>
       <c r="K44" s="23">
-        <v>14</v>
+        <v>1413</v>
       </c>
       <c r="L44" s="25">
-        <v>24</v>
+        <v>2519</v>
       </c>
       <c r="M44" s="27">
-        <v>-10</v>
+        <v>-1105</v>
       </c>
       <c r="N44" s="29">
-        <v>8</v>
+        <v>899</v>
       </c>
       <c r="O44" s="31">
-        <v>16</v>
+        <v>1785</v>
       </c>
       <c r="P44" s="33">
-        <v>-8</v>
+        <v>-886</v>
       </c>
       <c r="Q44" s="35">
-        <v>34</v>
+        <v>3585</v>
       </c>
       <c r="R44" s="37">
-        <v>20</v>
+        <v>2355</v>
       </c>
       <c r="S44" s="39">
+        <v>1230</v>
+      </c>
+      <c r="T44" s="41">
         <v>13</v>
       </c>
-      <c r="T44" s="41">
-        <v>0</v>
-      </c>
       <c r="U44" s="43">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="V44" s="45">
-        <v>-3</v>
+        <v>-267</v>
       </c>
       <c r="W44" s="47">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="X44" s="49">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="Y44" s="51">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Z44" s="53">
-        <v>32</v>
+        <v>3263</v>
       </c>
       <c r="AA44" s="55">
-        <v>11</v>
+        <v>1063</v>
       </c>
       <c r="AB44" s="57">
-        <v>21</v>
+        <v>2201</v>
       </c>
       <c r="AC44" s="59">
-        <v>8</v>
+        <v>859</v>
       </c>
       <c r="AD44" s="61">
-        <v>20</v>
+        <v>2166</v>
       </c>
       <c r="AE44" s="63">
-        <v>-12</v>
+        <v>-1307</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6484,16 +6484,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>6</v>
+        <v>637</v>
       </c>
       <c r="AJ44" s="73">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="AK44" s="75">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="AL44" s="77">
-        <v>402</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="45">
@@ -6501,94 +6501,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>62</v>
+        <v>10366</v>
       </c>
       <c r="C45" s="7">
-        <v>34</v>
+        <v>5577</v>
       </c>
       <c r="D45" s="9">
-        <v>28</v>
+        <v>4789</v>
       </c>
       <c r="E45" s="11">
-        <v>93</v>
+        <v>15598</v>
       </c>
       <c r="F45" s="13">
-        <v>108</v>
+        <v>18136</v>
       </c>
       <c r="G45" s="15">
-        <v>-15</v>
+        <v>-2538</v>
       </c>
       <c r="H45" s="17">
-        <v>33</v>
+        <v>5599</v>
       </c>
       <c r="I45" s="19">
-        <v>45</v>
+        <v>7573</v>
       </c>
       <c r="J45" s="21">
-        <v>-12</v>
+        <v>-1974</v>
       </c>
       <c r="K45" s="23">
-        <v>3</v>
+        <v>538</v>
       </c>
       <c r="L45" s="25">
-        <v>7</v>
+        <v>1275</v>
       </c>
       <c r="M45" s="27">
-        <v>-4</v>
+        <v>-737</v>
       </c>
       <c r="N45" s="29">
-        <v>5</v>
+        <v>831</v>
       </c>
       <c r="O45" s="31">
+        <v>1513</v>
+      </c>
+      <c r="P45" s="33">
+        <v>-683</v>
+      </c>
+      <c r="Q45" s="35">
+        <v>2369</v>
+      </c>
+      <c r="R45" s="37">
+        <v>1848</v>
+      </c>
+      <c r="S45" s="39">
+        <v>521</v>
+      </c>
+      <c r="T45" s="41">
         <v>9</v>
       </c>
-      <c r="P45" s="33">
-        <v>-4</v>
-      </c>
-      <c r="Q45" s="35">
-        <v>14</v>
-      </c>
-      <c r="R45" s="37">
-        <v>11</v>
-      </c>
-      <c r="S45" s="39">
-        <v>3</v>
-      </c>
-      <c r="T45" s="41">
-        <v>0</v>
-      </c>
       <c r="U45" s="43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V45" s="45">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="W45" s="47">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="X45" s="49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y45" s="51">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Z45" s="53">
-        <v>7</v>
+        <v>1111</v>
       </c>
       <c r="AA45" s="55">
-        <v>9</v>
+        <v>1570</v>
       </c>
       <c r="AB45" s="57">
-        <v>-3</v>
+        <v>-458</v>
       </c>
       <c r="AC45" s="59">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="AD45" s="61">
-        <v>7</v>
+        <v>1273</v>
       </c>
       <c r="AE45" s="63">
-        <v>-4</v>
+        <v>-649</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6600,16 +6600,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="AJ45" s="73">
-        <v>3</v>
+        <v>553</v>
       </c>
       <c r="AK45" s="75">
-        <v>-2</v>
+        <v>-278</v>
       </c>
       <c r="AL45" s="77">
-        <v>190</v>
+        <v>31838</v>
       </c>
     </row>
     <row r="46">
@@ -6617,94 +6617,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>36</v>
+        <v>5831</v>
       </c>
       <c r="C46" s="7">
-        <v>37</v>
+        <v>5881</v>
       </c>
       <c r="D46" s="9">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E46" s="11">
-        <v>66</v>
+        <v>10523</v>
       </c>
       <c r="F46" s="13">
-        <v>100</v>
+        <v>16134</v>
       </c>
       <c r="G46" s="15">
-        <v>-34</v>
+        <v>-5611</v>
       </c>
       <c r="H46" s="17">
-        <v>72</v>
+        <v>11682</v>
       </c>
       <c r="I46" s="19">
-        <v>36</v>
+        <v>5748</v>
       </c>
       <c r="J46" s="21">
-        <v>36</v>
+        <v>5934</v>
       </c>
       <c r="K46" s="23">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="L46" s="25">
-        <v>3</v>
+        <v>570</v>
       </c>
       <c r="M46" s="27">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="N46" s="29">
-        <v>6</v>
+        <v>875</v>
       </c>
       <c r="O46" s="31">
-        <v>5</v>
+        <v>775</v>
       </c>
       <c r="P46" s="33">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="Q46" s="35">
-        <v>18</v>
+        <v>2909</v>
       </c>
       <c r="R46" s="37">
-        <v>17</v>
+        <v>2806</v>
       </c>
       <c r="S46" s="39">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="T46" s="41">
         <v>0</v>
       </c>
       <c r="U46" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46" s="45">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="W46" s="47">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="X46" s="49">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="Y46" s="51">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="Z46" s="53">
-        <v>30</v>
+        <v>4803</v>
       </c>
       <c r="AA46" s="55">
-        <v>8</v>
+        <v>1229</v>
       </c>
       <c r="AB46" s="57">
-        <v>22</v>
+        <v>3574</v>
       </c>
       <c r="AC46" s="59">
-        <v>14</v>
+        <v>2391</v>
       </c>
       <c r="AD46" s="61">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="AE46" s="63">
-        <v>13</v>
+        <v>2116</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6716,16 +6716,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="AJ46" s="73">
-        <v>4</v>
+        <v>651</v>
       </c>
       <c r="AK46" s="75">
-        <v>-2</v>
+        <v>-274</v>
       </c>
       <c r="AL46" s="77">
-        <v>177</v>
+        <v>28413</v>
       </c>
     </row>
     <row r="47">
@@ -6733,94 +6733,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>92</v>
+        <v>14146</v>
       </c>
       <c r="C47" s="7">
-        <v>63</v>
+        <v>9728</v>
       </c>
       <c r="D47" s="9">
-        <v>29</v>
+        <v>4418</v>
       </c>
       <c r="E47" s="11">
-        <v>87</v>
+        <v>13353</v>
       </c>
       <c r="F47" s="13">
-        <v>105</v>
+        <v>16169</v>
       </c>
       <c r="G47" s="15">
-        <v>-18</v>
+        <v>-2817</v>
       </c>
       <c r="H47" s="17">
-        <v>21</v>
+        <v>3172</v>
       </c>
       <c r="I47" s="19">
-        <v>32</v>
+        <v>4869</v>
       </c>
       <c r="J47" s="21">
-        <v>-11</v>
+        <v>-1696</v>
       </c>
       <c r="K47" s="23">
-        <v>4</v>
+        <v>594</v>
       </c>
       <c r="L47" s="25">
-        <v>5</v>
+        <v>752</v>
       </c>
       <c r="M47" s="27">
-        <v>-1</v>
+        <v>-157</v>
       </c>
       <c r="N47" s="29">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="O47" s="31">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="P47" s="33">
-        <v>-1</v>
+        <v>-217</v>
       </c>
       <c r="Q47" s="35">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="R47" s="37">
+        <v>2213</v>
+      </c>
+      <c r="S47" s="39">
+        <v>-1964</v>
+      </c>
+      <c r="T47" s="41">
+        <v>0</v>
+      </c>
+      <c r="U47" s="43">
         <v>14</v>
       </c>
-      <c r="S47" s="39">
-        <v>-13</v>
-      </c>
-      <c r="T47" s="41">
-        <v>0</v>
-      </c>
-      <c r="U47" s="43">
-        <v>0</v>
-      </c>
       <c r="V47" s="45">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="W47" s="47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X47" s="49">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="Y47" s="51">
-        <v>-1</v>
+        <v>-135</v>
       </c>
       <c r="Z47" s="53">
-        <v>8</v>
+        <v>1272</v>
       </c>
       <c r="AA47" s="55">
-        <v>6</v>
+        <v>877</v>
       </c>
       <c r="AB47" s="57">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="AC47" s="59">
-        <v>4</v>
+        <v>593</v>
       </c>
       <c r="AD47" s="61">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="AE47" s="63">
-        <v>3</v>
+        <v>396</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AJ47" s="73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK47" s="75">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AL47" s="77">
-        <v>200</v>
+        <v>30777</v>
       </c>
     </row>
     <row r="48">
@@ -6849,94 +6849,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>45</v>
+        <v>7313</v>
       </c>
       <c r="C48" s="7">
-        <v>25</v>
+        <v>3992</v>
       </c>
       <c r="D48" s="9">
-        <v>21</v>
+        <v>3322</v>
       </c>
       <c r="E48" s="11">
-        <v>62</v>
+        <v>10042</v>
       </c>
       <c r="F48" s="13">
-        <v>86</v>
+        <v>13898</v>
       </c>
       <c r="G48" s="15">
-        <v>-24</v>
+        <v>-3856</v>
       </c>
       <c r="H48" s="17">
-        <v>48</v>
+        <v>7849</v>
       </c>
       <c r="I48" s="19">
-        <v>45</v>
+        <v>7286</v>
       </c>
       <c r="J48" s="21">
-        <v>3</v>
+        <v>563</v>
       </c>
       <c r="K48" s="23">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="L48" s="25">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="M48" s="27">
-        <v>-1</v>
+        <v>-215</v>
       </c>
       <c r="N48" s="29">
-        <v>6</v>
+        <v>1048</v>
       </c>
       <c r="O48" s="31">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="P48" s="33">
-        <v>3</v>
+        <v>432</v>
       </c>
       <c r="Q48" s="35">
-        <v>15</v>
+        <v>2359</v>
       </c>
       <c r="R48" s="37">
-        <v>19</v>
+        <v>3029</v>
       </c>
       <c r="S48" s="39">
-        <v>-4</v>
+        <v>-670</v>
       </c>
       <c r="T48" s="41">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="U48" s="43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V48" s="45">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="W48" s="47">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="X48" s="49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y48" s="51">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="Z48" s="53">
-        <v>25</v>
+        <v>4058</v>
       </c>
       <c r="AA48" s="55">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="AB48" s="57">
-        <v>21</v>
+        <v>3360</v>
       </c>
       <c r="AC48" s="59">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AD48" s="61">
-        <v>15</v>
+        <v>2456</v>
       </c>
       <c r="AE48" s="63">
-        <v>-15</v>
+        <v>-2393</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6948,16 +6948,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AJ48" s="73">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="AK48" s="75">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AL48" s="77">
-        <v>157</v>
+        <v>25314</v>
       </c>
     </row>
     <row r="49">
@@ -6965,94 +6965,94 @@
         <v>61</v>
       </c>
       <c r="B49" s="5">
-        <v>48</v>
+        <v>7752</v>
       </c>
       <c r="C49" s="7">
-        <v>36</v>
+        <v>5826</v>
       </c>
       <c r="D49" s="9">
-        <v>12</v>
+        <v>1926</v>
       </c>
       <c r="E49" s="11">
-        <v>95</v>
+        <v>15335</v>
       </c>
       <c r="F49" s="13">
-        <v>95</v>
+        <v>15247</v>
       </c>
       <c r="G49" s="15">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="H49" s="17">
-        <v>63</v>
+        <v>10198</v>
       </c>
       <c r="I49" s="19">
-        <v>74</v>
+        <v>11896</v>
       </c>
       <c r="J49" s="21">
-        <v>-11</v>
+        <v>-1698</v>
       </c>
       <c r="K49" s="23">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L49" s="25">
-        <v>9</v>
+        <v>1521</v>
       </c>
       <c r="M49" s="27">
-        <v>-3</v>
+        <v>-541</v>
       </c>
       <c r="N49" s="29">
-        <v>17</v>
+        <v>2773</v>
       </c>
       <c r="O49" s="31">
-        <v>12</v>
+        <v>1891</v>
       </c>
       <c r="P49" s="33">
-        <v>5</v>
+        <v>881</v>
       </c>
       <c r="Q49" s="35">
-        <v>12</v>
+        <v>1913</v>
       </c>
       <c r="R49" s="37">
-        <v>26</v>
+        <v>4276</v>
       </c>
       <c r="S49" s="39">
-        <v>-15</v>
+        <v>-2362</v>
       </c>
       <c r="T49" s="41">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U49" s="43">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="V49" s="45">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="W49" s="47">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="X49" s="49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y49" s="51">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="Z49" s="53">
-        <v>19</v>
+        <v>3034</v>
       </c>
       <c r="AA49" s="55">
-        <v>5</v>
+        <v>866</v>
       </c>
       <c r="AB49" s="57">
-        <v>13</v>
+        <v>2168</v>
       </c>
       <c r="AC49" s="59">
-        <v>8</v>
+        <v>1334</v>
       </c>
       <c r="AD49" s="61">
-        <v>20</v>
+        <v>3249</v>
       </c>
       <c r="AE49" s="63">
-        <v>-12</v>
+        <v>-1915</v>
       </c>
       <c r="AF49" s="65">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AJ49" s="73">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="AK49" s="75">
-        <v>-2</v>
+        <v>-315</v>
       </c>
       <c r="AL49" s="77">
-        <v>207</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="50">
@@ -7081,94 +7081,94 @@
         <v>62</v>
       </c>
       <c r="B50" s="5">
-        <v>103</v>
+        <v>16065</v>
       </c>
       <c r="C50" s="7">
-        <v>98</v>
+        <v>15161</v>
       </c>
       <c r="D50" s="9">
-        <v>6</v>
+        <v>904</v>
       </c>
       <c r="E50" s="11">
-        <v>87</v>
+        <v>13465</v>
       </c>
       <c r="F50" s="13">
+        <v>13977</v>
+      </c>
+      <c r="G50" s="15">
+        <v>-513</v>
+      </c>
+      <c r="H50" s="17">
+        <v>12853</v>
+      </c>
+      <c r="I50" s="19">
+        <v>12982</v>
+      </c>
+      <c r="J50" s="21">
+        <v>-130</v>
+      </c>
+      <c r="K50" s="23">
+        <v>3566</v>
+      </c>
+      <c r="L50" s="25">
+        <v>3616</v>
+      </c>
+      <c r="M50" s="27">
+        <v>-51</v>
+      </c>
+      <c r="N50" s="29">
+        <v>2624</v>
+      </c>
+      <c r="O50" s="31">
+        <v>690</v>
+      </c>
+      <c r="P50" s="33">
+        <v>1935</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>2815</v>
+      </c>
+      <c r="R50" s="37">
+        <v>4306</v>
+      </c>
+      <c r="S50" s="39">
+        <v>-1492</v>
+      </c>
+      <c r="T50" s="41">
+        <v>56</v>
+      </c>
+      <c r="U50" s="43">
+        <v>150</v>
+      </c>
+      <c r="V50" s="45">
+        <v>-94</v>
+      </c>
+      <c r="W50" s="47">
         <v>90</v>
       </c>
-      <c r="G50" s="15">
-        <v>-3</v>
-      </c>
-      <c r="H50" s="17">
-        <v>83</v>
-      </c>
-      <c r="I50" s="19">
-        <v>84</v>
-      </c>
-      <c r="J50" s="21">
-        <v>-1</v>
-      </c>
-      <c r="K50" s="23">
-        <v>23</v>
-      </c>
-      <c r="L50" s="25">
-        <v>23</v>
-      </c>
-      <c r="M50" s="27">
-        <v>0</v>
-      </c>
-      <c r="N50" s="29">
-        <v>17</v>
-      </c>
-      <c r="O50" s="31">
-        <v>4</v>
-      </c>
-      <c r="P50" s="33">
-        <v>12</v>
-      </c>
-      <c r="Q50" s="35">
-        <v>18</v>
-      </c>
-      <c r="R50" s="37">
-        <v>28</v>
-      </c>
-      <c r="S50" s="39">
-        <v>-10</v>
-      </c>
-      <c r="T50" s="41">
-        <v>0</v>
-      </c>
-      <c r="U50" s="43">
-        <v>1</v>
-      </c>
-      <c r="V50" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W50" s="47">
-        <v>1</v>
-      </c>
       <c r="X50" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="51">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="Z50" s="53">
-        <v>11</v>
+        <v>1682</v>
       </c>
       <c r="AA50" s="55">
-        <v>15</v>
+        <v>2325</v>
       </c>
       <c r="AB50" s="57">
-        <v>-4</v>
+        <v>-643</v>
       </c>
       <c r="AC50" s="59">
-        <v>13</v>
+        <v>2020</v>
       </c>
       <c r="AD50" s="61">
-        <v>12</v>
+        <v>1892</v>
       </c>
       <c r="AE50" s="63">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="AF50" s="65">
         <v>0</v>
@@ -7180,16 +7180,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="71">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="AJ50" s="73">
-        <v>5</v>
+        <v>847</v>
       </c>
       <c r="AK50" s="75">
-        <v>-1</v>
+        <v>-261</v>
       </c>
       <c r="AL50" s="77">
-        <v>277</v>
+        <v>42968</v>
       </c>
     </row>
     <row r="51">
@@ -7197,94 +7197,94 @@
         <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>105</v>
+        <v>15875</v>
       </c>
       <c r="C51" s="7">
-        <v>61</v>
+        <v>9265</v>
       </c>
       <c r="D51" s="9">
-        <v>44</v>
+        <v>6610</v>
       </c>
       <c r="E51" s="11">
-        <v>140</v>
+        <v>21278</v>
       </c>
       <c r="F51" s="13">
-        <v>184</v>
+        <v>27993</v>
       </c>
       <c r="G51" s="15">
-        <v>-44</v>
+        <v>-6715</v>
       </c>
       <c r="H51" s="17">
-        <v>110</v>
+        <v>16814</v>
       </c>
       <c r="I51" s="19">
-        <v>108</v>
+        <v>16454</v>
       </c>
       <c r="J51" s="21">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="K51" s="23">
-        <v>34</v>
+        <v>5160</v>
       </c>
       <c r="L51" s="25">
-        <v>39</v>
+        <v>5925</v>
       </c>
       <c r="M51" s="27">
-        <v>-5</v>
+        <v>-765</v>
       </c>
       <c r="N51" s="29">
-        <v>20</v>
+        <v>3076</v>
       </c>
       <c r="O51" s="31">
-        <v>6</v>
+        <v>847</v>
       </c>
       <c r="P51" s="33">
-        <v>14</v>
+        <v>2229</v>
       </c>
       <c r="Q51" s="35">
-        <v>19</v>
+        <v>2961</v>
       </c>
       <c r="R51" s="37">
-        <v>25</v>
+        <v>3854</v>
       </c>
       <c r="S51" s="39">
-        <v>-6</v>
+        <v>-893</v>
       </c>
       <c r="T51" s="41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U51" s="43">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="V51" s="45">
-        <v>-2</v>
+        <v>-250</v>
       </c>
       <c r="W51" s="47">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="X51" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="51">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="Z51" s="53">
-        <v>24</v>
+        <v>3635</v>
       </c>
       <c r="AA51" s="55">
-        <v>19</v>
+        <v>2805</v>
       </c>
       <c r="AB51" s="57">
-        <v>5</v>
+        <v>830</v>
       </c>
       <c r="AC51" s="59">
-        <v>11</v>
+        <v>1659</v>
       </c>
       <c r="AD51" s="61">
-        <v>18</v>
+        <v>2751</v>
       </c>
       <c r="AE51" s="63">
-        <v>-7</v>
+        <v>-1092</v>
       </c>
       <c r="AF51" s="65">
         <v>0</v>
@@ -7296,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="71">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="AJ51" s="73">
-        <v>4</v>
+        <v>656</v>
       </c>
       <c r="AK51" s="75">
-        <v>-2</v>
+        <v>-256</v>
       </c>
       <c r="AL51" s="77">
-        <v>358</v>
+        <v>54368</v>
       </c>
     </row>
     <row r="52">
@@ -7313,94 +7313,94 @@
         <v>64</v>
       </c>
       <c r="B52" s="5">
-        <v>29</v>
+        <v>4090</v>
       </c>
       <c r="C52" s="7">
-        <v>54</v>
+        <v>7741</v>
       </c>
       <c r="D52" s="9">
-        <v>-26</v>
+        <v>-3652</v>
       </c>
       <c r="E52" s="11">
-        <v>122</v>
+        <v>17358</v>
       </c>
       <c r="F52" s="13">
-        <v>126</v>
+        <v>18005</v>
       </c>
       <c r="G52" s="15">
-        <v>-5</v>
+        <v>-647</v>
       </c>
       <c r="H52" s="17">
+        <v>15121</v>
+      </c>
+      <c r="I52" s="19">
+        <v>10943</v>
+      </c>
+      <c r="J52" s="21">
+        <v>4178</v>
+      </c>
+      <c r="K52" s="23">
+        <v>4399</v>
+      </c>
+      <c r="L52" s="25">
+        <v>4281</v>
+      </c>
+      <c r="M52" s="27">
+        <v>119</v>
+      </c>
+      <c r="N52" s="29">
+        <v>2672</v>
+      </c>
+      <c r="O52" s="31">
+        <v>440</v>
+      </c>
+      <c r="P52" s="33">
+        <v>2232</v>
+      </c>
+      <c r="Q52" s="35">
+        <v>3221</v>
+      </c>
+      <c r="R52" s="37">
+        <v>1574</v>
+      </c>
+      <c r="S52" s="39">
+        <v>1647</v>
+      </c>
+      <c r="T52" s="41">
+        <v>151</v>
+      </c>
+      <c r="U52" s="43">
+        <v>565</v>
+      </c>
+      <c r="V52" s="45">
+        <v>-413</v>
+      </c>
+      <c r="W52" s="47">
+        <v>26</v>
+      </c>
+      <c r="X52" s="49">
         <v>106</v>
       </c>
-      <c r="I52" s="19">
-        <v>77</v>
-      </c>
-      <c r="J52" s="21">
-        <v>29</v>
-      </c>
-      <c r="K52" s="23">
-        <v>31</v>
-      </c>
-      <c r="L52" s="25">
-        <v>30</v>
-      </c>
-      <c r="M52" s="27">
-        <v>1</v>
-      </c>
-      <c r="N52" s="29">
-        <v>19</v>
-      </c>
-      <c r="O52" s="31">
-        <v>3</v>
-      </c>
-      <c r="P52" s="33">
-        <v>15</v>
-      </c>
-      <c r="Q52" s="35">
-        <v>23</v>
-      </c>
-      <c r="R52" s="37">
-        <v>11</v>
-      </c>
-      <c r="S52" s="39">
-        <v>11</v>
-      </c>
-      <c r="T52" s="41">
-        <v>1</v>
-      </c>
-      <c r="U52" s="43">
-        <v>4</v>
-      </c>
-      <c r="V52" s="45">
-        <v>-3</v>
-      </c>
-      <c r="W52" s="47">
-        <v>0</v>
-      </c>
-      <c r="X52" s="49">
-        <v>1</v>
-      </c>
       <c r="Y52" s="51">
-        <v>-1</v>
+        <v>-80</v>
       </c>
       <c r="Z52" s="53">
-        <v>27</v>
+        <v>3792</v>
       </c>
       <c r="AA52" s="55">
-        <v>23</v>
+        <v>3251</v>
       </c>
       <c r="AB52" s="57">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="AC52" s="59">
-        <v>6</v>
+        <v>860</v>
       </c>
       <c r="AD52" s="61">
-        <v>5</v>
+        <v>726</v>
       </c>
       <c r="AE52" s="63">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="AF52" s="65">
         <v>0</v>
@@ -7412,16 +7412,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="71">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="AJ52" s="73">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="AK52" s="75">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="AL52" s="77">
-        <v>258</v>
+        <v>36867</v>
       </c>
     </row>
     <row r="53">
@@ -7429,94 +7429,94 @@
         <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>19</v>
+        <v>2690</v>
       </c>
       <c r="C53" s="7">
-        <v>34</v>
+        <v>4933</v>
       </c>
       <c r="D53" s="9">
-        <v>-15</v>
+        <v>-2243</v>
       </c>
       <c r="E53" s="11">
-        <v>53</v>
+        <v>7588</v>
       </c>
       <c r="F53" s="13">
-        <v>43</v>
+        <v>6244</v>
       </c>
       <c r="G53" s="15">
-        <v>10</v>
+        <v>1344</v>
       </c>
       <c r="H53" s="17">
-        <v>53</v>
+        <v>7846</v>
       </c>
       <c r="I53" s="19">
-        <v>47</v>
+        <v>6834</v>
       </c>
       <c r="J53" s="21">
-        <v>6</v>
+        <v>1013</v>
       </c>
       <c r="K53" s="23">
-        <v>12</v>
+        <v>1703</v>
       </c>
       <c r="L53" s="25">
-        <v>13</v>
+        <v>1840</v>
       </c>
       <c r="M53" s="27">
-        <v>-1</v>
+        <v>-137</v>
       </c>
       <c r="N53" s="29">
-        <v>7</v>
+        <v>1093</v>
       </c>
       <c r="O53" s="31">
-        <v>15</v>
+        <v>2164</v>
       </c>
       <c r="P53" s="33">
-        <v>-7</v>
+        <v>-1070</v>
       </c>
       <c r="Q53" s="35">
+        <v>2045</v>
+      </c>
+      <c r="R53" s="37">
+        <v>1143</v>
+      </c>
+      <c r="S53" s="39">
+        <v>902</v>
+      </c>
+      <c r="T53" s="41">
+        <v>118</v>
+      </c>
+      <c r="U53" s="43">
+        <v>104</v>
+      </c>
+      <c r="V53" s="45">
         <v>14</v>
       </c>
-      <c r="R53" s="37">
-        <v>8</v>
-      </c>
-      <c r="S53" s="39">
-        <v>6</v>
-      </c>
-      <c r="T53" s="41">
-        <v>1</v>
-      </c>
-      <c r="U53" s="43">
-        <v>1</v>
-      </c>
-      <c r="V53" s="45">
-        <v>0</v>
-      </c>
       <c r="W53" s="47">
         <v>0</v>
       </c>
       <c r="X53" s="49">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y53" s="51">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="Z53" s="53">
-        <v>17</v>
+        <v>2478</v>
       </c>
       <c r="AA53" s="55">
-        <v>10</v>
+        <v>1360</v>
       </c>
       <c r="AB53" s="57">
-        <v>7</v>
+        <v>1118</v>
       </c>
       <c r="AC53" s="59">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="AD53" s="61">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="AE53" s="63">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="AF53" s="65">
         <v>0</v>
@@ -7528,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AJ53" s="73">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="AK53" s="75">
-        <v>-1</v>
+        <v>-114</v>
       </c>
       <c r="AL53" s="77">
-        <v>125</v>
+        <v>18141</v>
       </c>
     </row>
     <row r="54">
@@ -7545,94 +7545,94 @@
         <v>66</v>
       </c>
       <c r="B54" s="5">
-        <v>42</v>
+        <v>6302</v>
       </c>
       <c r="C54" s="7">
-        <v>62</v>
+        <v>9586</v>
       </c>
       <c r="D54" s="9">
-        <v>-20</v>
+        <v>-3284</v>
       </c>
       <c r="E54" s="11">
-        <v>97</v>
+        <v>14775</v>
       </c>
       <c r="F54" s="13">
-        <v>81</v>
+        <v>12451</v>
       </c>
       <c r="G54" s="15">
-        <v>16</v>
+        <v>2324</v>
       </c>
       <c r="H54" s="17">
-        <v>81</v>
+        <v>12642</v>
       </c>
       <c r="I54" s="19">
-        <v>80</v>
+        <v>12117</v>
       </c>
       <c r="J54" s="21">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="K54" s="23">
-        <v>23</v>
+        <v>3526</v>
       </c>
       <c r="L54" s="25">
-        <v>22</v>
+        <v>3391</v>
       </c>
       <c r="M54" s="27">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="N54" s="29">
-        <v>21</v>
+        <v>3293</v>
       </c>
       <c r="O54" s="31">
-        <v>9</v>
+        <v>1469</v>
       </c>
       <c r="P54" s="33">
-        <v>12</v>
+        <v>1824</v>
       </c>
       <c r="Q54" s="35">
-        <v>3</v>
+        <v>510</v>
       </c>
       <c r="R54" s="37">
-        <v>15</v>
+        <v>2194</v>
       </c>
       <c r="S54" s="39">
-        <v>-12</v>
+        <v>-1684</v>
       </c>
       <c r="T54" s="41">
-        <v>4</v>
+        <v>658</v>
       </c>
       <c r="U54" s="43">
-        <v>2</v>
+        <v>372</v>
       </c>
       <c r="V54" s="45">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="W54" s="47">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="X54" s="49">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="Y54" s="51">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="Z54" s="53">
-        <v>23</v>
+        <v>3616</v>
       </c>
       <c r="AA54" s="55">
-        <v>17</v>
+        <v>2685</v>
       </c>
       <c r="AB54" s="57">
-        <v>5</v>
+        <v>931</v>
       </c>
       <c r="AC54" s="59">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AD54" s="61">
-        <v>13</v>
+        <v>1881</v>
       </c>
       <c r="AE54" s="63">
-        <v>-6</v>
+        <v>-902</v>
       </c>
       <c r="AF54" s="65">
         <v>0</v>
@@ -7644,16 +7644,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="71">
-        <v>5</v>
+        <v>803</v>
       </c>
       <c r="AJ54" s="73">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="AK54" s="75">
-        <v>3</v>
+        <v>435</v>
       </c>
       <c r="AL54" s="77">
-        <v>225</v>
+        <v>34522</v>
       </c>
     </row>
     <row r="55">
@@ -7661,94 +7661,94 @@
         <v>67</v>
       </c>
       <c r="B55" s="5">
-        <v>15</v>
+        <v>2665</v>
       </c>
       <c r="C55" s="7">
-        <v>71</v>
+        <v>12088</v>
       </c>
       <c r="D55" s="9">
-        <v>-55</v>
+        <v>-9424</v>
       </c>
       <c r="E55" s="11">
-        <v>122</v>
+        <v>20910</v>
       </c>
       <c r="F55" s="13">
-        <v>83</v>
+        <v>14258</v>
       </c>
       <c r="G55" s="15">
-        <v>39</v>
+        <v>6652</v>
       </c>
       <c r="H55" s="17">
-        <v>101</v>
+        <v>17443</v>
       </c>
       <c r="I55" s="19">
-        <v>83</v>
+        <v>14297</v>
       </c>
       <c r="J55" s="21">
-        <v>18</v>
+        <v>3146</v>
       </c>
       <c r="K55" s="23">
-        <v>17</v>
+        <v>2917</v>
       </c>
       <c r="L55" s="25">
-        <v>22</v>
+        <v>3785</v>
       </c>
       <c r="M55" s="27">
-        <v>-5</v>
+        <v>-868</v>
       </c>
       <c r="N55" s="29">
-        <v>5</v>
+        <v>890</v>
       </c>
       <c r="O55" s="31">
-        <v>23</v>
+        <v>4051</v>
       </c>
       <c r="P55" s="33">
-        <v>-18</v>
+        <v>-3161</v>
       </c>
       <c r="Q55" s="35">
-        <v>28</v>
+        <v>4776</v>
       </c>
       <c r="R55" s="37">
-        <v>9</v>
+        <v>1534</v>
       </c>
       <c r="S55" s="39">
+        <v>3242</v>
+      </c>
+      <c r="T55" s="41">
+        <v>219</v>
+      </c>
+      <c r="U55" s="43">
+        <v>322</v>
+      </c>
+      <c r="V55" s="45">
+        <v>-103</v>
+      </c>
+      <c r="W55" s="47">
+        <v>50</v>
+      </c>
+      <c r="X55" s="49">
         <v>19</v>
       </c>
-      <c r="T55" s="41">
-        <v>1</v>
-      </c>
-      <c r="U55" s="43">
-        <v>2</v>
-      </c>
-      <c r="V55" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W55" s="47">
-        <v>0</v>
-      </c>
-      <c r="X55" s="49">
-        <v>0</v>
-      </c>
       <c r="Y55" s="51">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z55" s="53">
-        <v>36</v>
+        <v>6188</v>
       </c>
       <c r="AA55" s="55">
-        <v>16</v>
+        <v>2693</v>
       </c>
       <c r="AB55" s="57">
-        <v>20</v>
+        <v>3495</v>
       </c>
       <c r="AC55" s="59">
-        <v>14</v>
+        <v>2402</v>
       </c>
       <c r="AD55" s="61">
-        <v>11</v>
+        <v>1893</v>
       </c>
       <c r="AE55" s="63">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="AF55" s="65">
         <v>0</v>
@@ -7760,16 +7760,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="71">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AJ55" s="73">
-        <v>3</v>
+        <v>531</v>
       </c>
       <c r="AK55" s="75">
-        <v>-2</v>
+        <v>-374</v>
       </c>
       <c r="AL55" s="77">
-        <v>240</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="56">
@@ -7777,94 +7777,94 @@
         <v>68</v>
       </c>
       <c r="B56" s="5">
-        <v>31</v>
+        <v>5476</v>
       </c>
       <c r="C56" s="7">
-        <v>52</v>
+        <v>9051</v>
       </c>
       <c r="D56" s="9">
-        <v>-21</v>
+        <v>-3575</v>
       </c>
       <c r="E56" s="11">
-        <v>103</v>
+        <v>17957</v>
       </c>
       <c r="F56" s="13">
-        <v>149</v>
+        <v>26691</v>
       </c>
       <c r="G56" s="15">
-        <v>-46</v>
+        <v>-8734</v>
       </c>
       <c r="H56" s="17">
-        <v>165</v>
+        <v>29917</v>
       </c>
       <c r="I56" s="19">
-        <v>91</v>
+        <v>16337</v>
       </c>
       <c r="J56" s="21">
-        <v>74</v>
+        <v>13580</v>
       </c>
       <c r="K56" s="23">
-        <v>23</v>
+        <v>4045</v>
       </c>
       <c r="L56" s="25">
-        <v>26</v>
+        <v>4772</v>
       </c>
       <c r="M56" s="27">
-        <v>-4</v>
+        <v>-728</v>
       </c>
       <c r="N56" s="29">
-        <v>11</v>
+        <v>2106</v>
       </c>
       <c r="O56" s="31">
-        <v>14</v>
+        <v>2373</v>
       </c>
       <c r="P56" s="33">
-        <v>-2</v>
+        <v>-267</v>
       </c>
       <c r="Q56" s="35">
-        <v>27</v>
+        <v>4882</v>
       </c>
       <c r="R56" s="37">
-        <v>10</v>
+        <v>1765</v>
       </c>
       <c r="S56" s="39">
-        <v>17</v>
+        <v>3118</v>
       </c>
       <c r="T56" s="41">
+        <v>586</v>
+      </c>
+      <c r="U56" s="43">
         <v>3</v>
       </c>
-      <c r="U56" s="43">
-        <v>0</v>
-      </c>
       <c r="V56" s="45">
-        <v>3</v>
+        <v>583</v>
       </c>
       <c r="W56" s="47">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="X56" s="49">
         <v>0</v>
       </c>
       <c r="Y56" s="51">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="Z56" s="53">
-        <v>89</v>
+        <v>16169</v>
       </c>
       <c r="AA56" s="55">
-        <v>20</v>
+        <v>3588</v>
       </c>
       <c r="AB56" s="57">
-        <v>69</v>
+        <v>12581</v>
       </c>
       <c r="AC56" s="59">
-        <v>10</v>
+        <v>1912</v>
       </c>
       <c r="AD56" s="61">
-        <v>22</v>
+        <v>3835</v>
       </c>
       <c r="AE56" s="63">
-        <v>-11</v>
+        <v>-1923</v>
       </c>
       <c r="AF56" s="65">
         <v>0</v>
@@ -7876,16 +7876,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="71">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="AJ56" s="73">
-        <v>8</v>
+        <v>1505</v>
       </c>
       <c r="AK56" s="75">
-        <v>-7</v>
+        <v>-1271</v>
       </c>
       <c r="AL56" s="77">
-        <v>300</v>
+        <v>53584</v>
       </c>
     </row>
     <row r="57">
@@ -7893,94 +7893,94 @@
         <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>26</v>
+        <v>4493</v>
       </c>
       <c r="C57" s="7">
-        <v>31</v>
+        <v>5233</v>
       </c>
       <c r="D57" s="9">
-        <v>-5</v>
+        <v>-740</v>
       </c>
       <c r="E57" s="11">
-        <v>74</v>
+        <v>12463</v>
       </c>
       <c r="F57" s="13">
-        <v>79</v>
+        <v>13493</v>
       </c>
       <c r="G57" s="15">
-        <v>-5</v>
+        <v>-1030</v>
       </c>
       <c r="H57" s="17">
-        <v>44</v>
+        <v>7513</v>
       </c>
       <c r="I57" s="19">
-        <v>35</v>
+        <v>5920</v>
       </c>
       <c r="J57" s="21">
-        <v>9</v>
+        <v>1593</v>
       </c>
       <c r="K57" s="23">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="L57" s="25">
-        <v>4</v>
+        <v>714</v>
       </c>
       <c r="M57" s="27">
-        <v>-2</v>
+        <v>-317</v>
       </c>
       <c r="N57" s="29">
-        <v>16</v>
+        <v>2727</v>
       </c>
       <c r="O57" s="31">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="P57" s="33">
-        <v>12</v>
+        <v>2066</v>
       </c>
       <c r="Q57" s="35">
-        <v>10</v>
+        <v>1769</v>
       </c>
       <c r="R57" s="37">
-        <v>4</v>
+        <v>634</v>
       </c>
       <c r="S57" s="39">
-        <v>7</v>
+        <v>1135</v>
       </c>
       <c r="T57" s="41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U57" s="43">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="V57" s="45">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="W57" s="47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X57" s="49">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="Y57" s="51">
-        <v>-2</v>
+        <v>-303</v>
       </c>
       <c r="Z57" s="53">
-        <v>13</v>
+        <v>2264</v>
       </c>
       <c r="AA57" s="55">
-        <v>11</v>
+        <v>1831</v>
       </c>
       <c r="AB57" s="57">
-        <v>2</v>
+        <v>433</v>
       </c>
       <c r="AC57" s="59">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="AD57" s="61">
-        <v>10</v>
+        <v>1646</v>
       </c>
       <c r="AE57" s="63">
-        <v>-8</v>
+        <v>-1360</v>
       </c>
       <c r="AF57" s="65">
         <v>0</v>
@@ -7992,16 +7992,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="71">
-        <v>2</v>
+        <v>354</v>
       </c>
       <c r="AJ57" s="73">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AK57" s="75">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="AL57" s="77">
-        <v>146</v>
+        <v>24824</v>
       </c>
     </row>
     <row r="58">
@@ -8009,94 +8009,94 @@
         <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>30</v>
+        <v>5346</v>
       </c>
       <c r="C58" s="7">
-        <v>35</v>
+        <v>6287</v>
       </c>
       <c r="D58" s="9">
-        <v>-5</v>
+        <v>-941</v>
       </c>
       <c r="E58" s="11">
-        <v>130</v>
+        <v>23024</v>
       </c>
       <c r="F58" s="13">
-        <v>100</v>
+        <v>17844</v>
       </c>
       <c r="G58" s="15">
-        <v>30</v>
+        <v>5180</v>
       </c>
       <c r="H58" s="17">
-        <v>81</v>
+        <v>14667</v>
       </c>
       <c r="I58" s="19">
-        <v>105</v>
+        <v>18646</v>
       </c>
       <c r="J58" s="21">
-        <v>-24</v>
+        <v>-3979</v>
       </c>
       <c r="K58" s="23">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="L58" s="25">
-        <v>7</v>
+        <v>1194</v>
       </c>
       <c r="M58" s="27">
-        <v>-3</v>
+        <v>-473</v>
       </c>
       <c r="N58" s="29">
-        <v>14</v>
+        <v>2588</v>
       </c>
       <c r="O58" s="31">
-        <v>20</v>
+        <v>3596</v>
       </c>
       <c r="P58" s="33">
-        <v>-6</v>
+        <v>-1008</v>
       </c>
       <c r="Q58" s="35">
-        <v>35</v>
+        <v>6334</v>
       </c>
       <c r="R58" s="37">
-        <v>27</v>
+        <v>4784</v>
       </c>
       <c r="S58" s="39">
-        <v>8</v>
+        <v>1549</v>
       </c>
       <c r="T58" s="41">
         <v>0</v>
       </c>
       <c r="U58" s="43">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="V58" s="45">
-        <v>-2</v>
+        <v>-289</v>
       </c>
       <c r="W58" s="47">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="X58" s="49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y58" s="51">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Z58" s="53">
-        <v>21</v>
+        <v>3848</v>
       </c>
       <c r="AA58" s="55">
-        <v>36</v>
+        <v>6342</v>
       </c>
       <c r="AB58" s="57">
-        <v>-14</v>
+        <v>-2495</v>
       </c>
       <c r="AC58" s="59">
-        <v>6</v>
+        <v>1096</v>
       </c>
       <c r="AD58" s="61">
-        <v>14</v>
+        <v>2416</v>
       </c>
       <c r="AE58" s="63">
-        <v>-7</v>
+        <v>-1320</v>
       </c>
       <c r="AF58" s="65">
         <v>0</v>
@@ -8108,16 +8108,16 @@
         <v>0</v>
       </c>
       <c r="AI58" s="71">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="AJ58" s="73">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="AK58" s="75">
-        <v>-1</v>
+        <v>-260</v>
       </c>
       <c r="AL58" s="77">
-        <v>242</v>
+        <v>43190</v>
       </c>
     </row>
     <row r="59">
@@ -8125,115 +8125,115 @@
         <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>65</v>
+        <v>12190</v>
       </c>
       <c r="C59" s="7">
-        <v>14</v>
+        <v>2667</v>
       </c>
       <c r="D59" s="9">
-        <v>51</v>
+        <v>9523</v>
       </c>
       <c r="E59" s="11">
-        <v>60</v>
+        <v>11219</v>
       </c>
       <c r="F59" s="13">
-        <v>125</v>
+        <v>23313</v>
       </c>
       <c r="G59" s="15">
-        <v>-64</v>
+        <v>-12094</v>
       </c>
       <c r="H59" s="17">
-        <v>105</v>
+        <v>19617</v>
       </c>
       <c r="I59" s="19">
-        <v>91</v>
+        <v>17041</v>
       </c>
       <c r="J59" s="21">
-        <v>13</v>
+        <v>2576</v>
       </c>
       <c r="K59" s="23">
-        <v>9</v>
+        <v>1596</v>
       </c>
       <c r="L59" s="25">
-        <v>4</v>
+        <v>683</v>
       </c>
       <c r="M59" s="27">
-        <v>5</v>
+        <v>914</v>
       </c>
       <c r="N59" s="29">
-        <v>14</v>
+        <v>2610</v>
       </c>
       <c r="O59" s="31">
-        <v>22</v>
+        <v>4107</v>
       </c>
       <c r="P59" s="33">
-        <v>-8</v>
+        <v>-1497</v>
       </c>
       <c r="Q59" s="35">
-        <v>47</v>
+        <v>8793</v>
       </c>
       <c r="R59" s="37">
-        <v>33</v>
+        <v>6155</v>
       </c>
       <c r="S59" s="39">
-        <v>14</v>
+        <v>2638</v>
       </c>
       <c r="T59" s="41">
         <v>0</v>
       </c>
       <c r="U59" s="43">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="V59" s="45">
-        <v>-2</v>
+        <v>-376</v>
       </c>
       <c r="W59" s="47">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="X59" s="49">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="Y59" s="51">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="Z59" s="53">
-        <v>18</v>
+        <v>3448</v>
       </c>
       <c r="AA59" s="55">
-        <v>7</v>
+        <v>1267</v>
       </c>
       <c r="AB59" s="57">
-        <v>12</v>
+        <v>2180</v>
       </c>
       <c r="AC59" s="59">
-        <v>12</v>
+        <v>2262</v>
       </c>
       <c r="AD59" s="61">
-        <v>23</v>
+        <v>4265</v>
       </c>
       <c r="AE59" s="63">
-        <v>-11</v>
+        <v>-2003</v>
       </c>
       <c r="AF59" s="65">
-        <v>4</v>
+        <v>819</v>
       </c>
       <c r="AG59" s="67">
         <v>0</v>
       </c>
       <c r="AH59" s="69">
-        <v>4</v>
+        <v>819</v>
       </c>
       <c r="AI59" s="71">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="AJ59" s="73">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="AK59" s="75">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AL59" s="77">
-        <v>232</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="60">
@@ -8241,115 +8241,115 @@
         <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>48</v>
+        <v>8518</v>
       </c>
       <c r="C60" s="7">
-        <v>35</v>
+        <v>6117</v>
       </c>
       <c r="D60" s="9">
-        <v>13</v>
+        <v>2401</v>
       </c>
       <c r="E60" s="11">
+        <v>19390</v>
+      </c>
+      <c r="F60" s="13">
+        <v>27523</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-8134</v>
+      </c>
+      <c r="H60" s="17">
+        <v>15794</v>
+      </c>
+      <c r="I60" s="19">
+        <v>10150</v>
+      </c>
+      <c r="J60" s="21">
+        <v>5644</v>
+      </c>
+      <c r="K60" s="23">
+        <v>1834</v>
+      </c>
+      <c r="L60" s="25">
+        <v>2065</v>
+      </c>
+      <c r="M60" s="27">
+        <v>-231</v>
+      </c>
+      <c r="N60" s="29">
+        <v>1438</v>
+      </c>
+      <c r="O60" s="31">
+        <v>529</v>
+      </c>
+      <c r="P60" s="33">
+        <v>908</v>
+      </c>
+      <c r="Q60" s="35">
+        <v>4082</v>
+      </c>
+      <c r="R60" s="37">
+        <v>1504</v>
+      </c>
+      <c r="S60" s="39">
+        <v>2577</v>
+      </c>
+      <c r="T60" s="41">
+        <v>22</v>
+      </c>
+      <c r="U60" s="43">
         <v>110</v>
       </c>
-      <c r="F60" s="13">
-        <v>155</v>
-      </c>
-      <c r="G60" s="15">
-        <v>-45</v>
-      </c>
-      <c r="H60" s="17">
-        <v>89</v>
-      </c>
-      <c r="I60" s="19">
-        <v>58</v>
-      </c>
-      <c r="J60" s="21">
-        <v>31</v>
-      </c>
-      <c r="K60" s="23">
-        <v>10</v>
-      </c>
-      <c r="L60" s="25">
-        <v>12</v>
-      </c>
-      <c r="M60" s="27">
-        <v>-2</v>
-      </c>
-      <c r="N60" s="29">
-        <v>8</v>
-      </c>
-      <c r="O60" s="31">
-        <v>3</v>
-      </c>
-      <c r="P60" s="33">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="35">
-        <v>23</v>
-      </c>
-      <c r="R60" s="37">
-        <v>8</v>
-      </c>
-      <c r="S60" s="39">
-        <v>15</v>
-      </c>
-      <c r="T60" s="41">
-        <v>0</v>
-      </c>
-      <c r="U60" s="43">
-        <v>1</v>
-      </c>
       <c r="V60" s="45">
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="W60" s="47">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X60" s="49">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="Y60" s="51">
-        <v>-1</v>
+        <v>-217</v>
       </c>
       <c r="Z60" s="53">
-        <v>36</v>
+        <v>6319</v>
       </c>
       <c r="AA60" s="55">
-        <v>13</v>
+        <v>2243</v>
       </c>
       <c r="AB60" s="57">
-        <v>23</v>
+        <v>4076</v>
       </c>
       <c r="AC60" s="59">
-        <v>9</v>
+        <v>1640</v>
       </c>
       <c r="AD60" s="61">
-        <v>14</v>
+        <v>2388</v>
       </c>
       <c r="AE60" s="63">
-        <v>-5</v>
+        <v>-748</v>
       </c>
       <c r="AF60" s="65">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="AG60" s="67">
-        <v>6</v>
+        <v>1065</v>
       </c>
       <c r="AH60" s="69">
-        <v>-4</v>
+        <v>-634</v>
       </c>
       <c r="AI60" s="71">
-        <v>2</v>
+        <v>374</v>
       </c>
       <c r="AJ60" s="73">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="AK60" s="75">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AL60" s="77">
-        <v>249</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="61">
@@ -8357,115 +8357,115 @@
         <v>73</v>
       </c>
       <c r="B61" s="5">
-        <v>71</v>
+        <v>11972</v>
       </c>
       <c r="C61" s="7">
-        <v>68</v>
+        <v>11462</v>
       </c>
       <c r="D61" s="9">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="E61" s="11">
-        <v>144</v>
+        <v>24312</v>
       </c>
       <c r="F61" s="13">
-        <v>197</v>
+        <v>33283</v>
       </c>
       <c r="G61" s="15">
-        <v>-53</v>
+        <v>-8971</v>
       </c>
       <c r="H61" s="17">
-        <v>156</v>
+        <v>26630</v>
       </c>
       <c r="I61" s="19">
-        <v>107</v>
+        <v>18133</v>
       </c>
       <c r="J61" s="21">
-        <v>49</v>
+        <v>8497</v>
       </c>
       <c r="K61" s="23">
-        <v>32</v>
+        <v>5369</v>
       </c>
       <c r="L61" s="25">
-        <v>29</v>
+        <v>4736</v>
       </c>
       <c r="M61" s="27">
-        <v>3</v>
+        <v>634</v>
       </c>
       <c r="N61" s="29">
-        <v>16</v>
+        <v>2651</v>
       </c>
       <c r="O61" s="31">
-        <v>5</v>
+        <v>818</v>
       </c>
       <c r="P61" s="33">
-        <v>11</v>
+        <v>1833</v>
       </c>
       <c r="Q61" s="35">
-        <v>51</v>
+        <v>8709</v>
       </c>
       <c r="R61" s="37">
-        <v>19</v>
+        <v>3130</v>
       </c>
       <c r="S61" s="39">
-        <v>32</v>
+        <v>5578</v>
       </c>
       <c r="T61" s="41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U61" s="43">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="V61" s="45">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="W61" s="47">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="X61" s="49">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="Y61" s="51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z61" s="53">
-        <v>41</v>
+        <v>7014</v>
       </c>
       <c r="AA61" s="55">
-        <v>44</v>
+        <v>7621</v>
       </c>
       <c r="AB61" s="57">
-        <v>-3</v>
+        <v>-606</v>
       </c>
       <c r="AC61" s="59">
-        <v>13</v>
+        <v>2205</v>
       </c>
       <c r="AD61" s="61">
-        <v>9</v>
+        <v>1461</v>
       </c>
       <c r="AE61" s="63">
-        <v>4</v>
+        <v>744</v>
       </c>
       <c r="AF61" s="65">
-        <v>3</v>
+        <v>545</v>
       </c>
       <c r="AG61" s="67">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="AH61" s="69">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="AI61" s="71">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="AJ61" s="73">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="AK61" s="75">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AL61" s="77">
-        <v>374</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="62">
@@ -8473,115 +8473,115 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>58</v>
+        <v>10623</v>
       </c>
       <c r="C62" s="7">
-        <v>52</v>
+        <v>9621</v>
       </c>
       <c r="D62" s="9">
-        <v>6</v>
+        <v>1002</v>
       </c>
       <c r="E62" s="11">
-        <v>183</v>
+        <v>33503</v>
       </c>
       <c r="F62" s="13">
-        <v>205</v>
+        <v>37951</v>
       </c>
       <c r="G62" s="15">
-        <v>-23</v>
+        <v>-4448</v>
       </c>
       <c r="H62" s="17">
-        <v>148</v>
+        <v>27439</v>
       </c>
       <c r="I62" s="19">
-        <v>130</v>
+        <v>23960</v>
       </c>
       <c r="J62" s="21">
-        <v>17</v>
+        <v>3479</v>
       </c>
       <c r="K62" s="23">
-        <v>16</v>
+        <v>2961</v>
       </c>
       <c r="L62" s="25">
-        <v>10</v>
+        <v>1782</v>
       </c>
       <c r="M62" s="27">
-        <v>6</v>
+        <v>1178</v>
       </c>
       <c r="N62" s="29">
-        <v>16</v>
+        <v>3009</v>
       </c>
       <c r="O62" s="31">
-        <v>9</v>
+        <v>1652</v>
       </c>
       <c r="P62" s="33">
-        <v>7</v>
+        <v>1357</v>
       </c>
       <c r="Q62" s="35">
-        <v>46</v>
+        <v>8613</v>
       </c>
       <c r="R62" s="37">
-        <v>14</v>
+        <v>2516</v>
       </c>
       <c r="S62" s="39">
-        <v>33</v>
+        <v>6098</v>
       </c>
       <c r="T62" s="41">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="U62" s="43">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="V62" s="45">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="W62" s="47">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X62" s="49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y62" s="51">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Z62" s="53">
-        <v>31</v>
+        <v>5718</v>
       </c>
       <c r="AA62" s="55">
-        <v>65</v>
+        <v>12003</v>
       </c>
       <c r="AB62" s="57">
+        <v>-6285</v>
+      </c>
+      <c r="AC62" s="59">
+        <v>3482</v>
+      </c>
+      <c r="AD62" s="61">
+        <v>5298</v>
+      </c>
+      <c r="AE62" s="63">
+        <v>-1816</v>
+      </c>
+      <c r="AF62" s="65">
+        <v>3424</v>
+      </c>
+      <c r="AG62" s="67">
+        <v>607</v>
+      </c>
+      <c r="AH62" s="69">
+        <v>2817</v>
+      </c>
+      <c r="AI62" s="71">
+        <v>507</v>
+      </c>
+      <c r="AJ62" s="73">
+        <v>541</v>
+      </c>
+      <c r="AK62" s="75">
         <v>-34</v>
       </c>
-      <c r="AC62" s="59">
-        <v>19</v>
-      </c>
-      <c r="AD62" s="61">
-        <v>29</v>
-      </c>
-      <c r="AE62" s="63">
-        <v>-10</v>
-      </c>
-      <c r="AF62" s="65">
-        <v>19</v>
-      </c>
-      <c r="AG62" s="67">
-        <v>3</v>
-      </c>
-      <c r="AH62" s="69">
-        <v>15</v>
-      </c>
-      <c r="AI62" s="71">
-        <v>3</v>
-      </c>
-      <c r="AJ62" s="73">
-        <v>3</v>
-      </c>
-      <c r="AK62" s="75">
-        <v>0</v>
-      </c>
       <c r="AL62" s="77">
-        <v>391</v>
+        <v>72072</v>
       </c>
     </row>
     <row r="63">
@@ -8589,115 +8589,115 @@
         <v>75</v>
       </c>
       <c r="B63" s="5">
-        <v>56</v>
+        <v>11092</v>
       </c>
       <c r="C63" s="7">
-        <v>132</v>
+        <v>25950</v>
       </c>
       <c r="D63" s="9">
-        <v>-77</v>
+        <v>-14858</v>
       </c>
       <c r="E63" s="11">
-        <v>442</v>
+        <v>84860</v>
       </c>
       <c r="F63" s="13">
-        <v>401</v>
+        <v>77591</v>
       </c>
       <c r="G63" s="15">
-        <v>41</v>
+        <v>7270</v>
       </c>
       <c r="H63" s="17">
-        <v>256</v>
+        <v>49852</v>
       </c>
       <c r="I63" s="19">
-        <v>221</v>
+        <v>42445</v>
       </c>
       <c r="J63" s="21">
-        <v>35</v>
+        <v>7407</v>
       </c>
       <c r="K63" s="23">
-        <v>26</v>
+        <v>5091</v>
       </c>
       <c r="L63" s="25">
-        <v>33</v>
+        <v>6479</v>
       </c>
       <c r="M63" s="27">
-        <v>-7</v>
+        <v>-1389</v>
       </c>
       <c r="N63" s="29">
-        <v>10</v>
+        <v>1931</v>
       </c>
       <c r="O63" s="31">
-        <v>23</v>
+        <v>4568</v>
       </c>
       <c r="P63" s="33">
-        <v>-13</v>
+        <v>-2637</v>
       </c>
       <c r="Q63" s="35">
-        <v>122</v>
+        <v>23749</v>
       </c>
       <c r="R63" s="37">
-        <v>41</v>
+        <v>7957</v>
       </c>
       <c r="S63" s="39">
-        <v>81</v>
+        <v>15792</v>
       </c>
       <c r="T63" s="41">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="U63" s="43">
-        <v>3</v>
+        <v>496</v>
       </c>
       <c r="V63" s="45">
-        <v>-2</v>
+        <v>-391</v>
       </c>
       <c r="W63" s="47">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="X63" s="49">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="Y63" s="51">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="Z63" s="53">
-        <v>47</v>
+        <v>9292</v>
       </c>
       <c r="AA63" s="55">
-        <v>29</v>
+        <v>5556</v>
       </c>
       <c r="AB63" s="57">
-        <v>18</v>
+        <v>3736</v>
       </c>
       <c r="AC63" s="59">
-        <v>42</v>
+        <v>8254</v>
       </c>
       <c r="AD63" s="61">
-        <v>87</v>
+        <v>16496</v>
       </c>
       <c r="AE63" s="63">
-        <v>-45</v>
+        <v>-8242</v>
       </c>
       <c r="AF63" s="65">
-        <v>6</v>
+        <v>1249</v>
       </c>
       <c r="AG63" s="67">
-        <v>3</v>
+        <v>616</v>
       </c>
       <c r="AH63" s="69">
-        <v>3</v>
+        <v>633</v>
       </c>
       <c r="AI63" s="71">
-        <v>6</v>
+        <v>1189</v>
       </c>
       <c r="AJ63" s="73">
-        <v>5</v>
+        <v>1008</v>
       </c>
       <c r="AK63" s="75">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="AL63" s="77">
-        <v>759</v>
+        <v>146993</v>
       </c>
     </row>
     <row r="64">
@@ -8705,115 +8705,115 @@
         <v>76</v>
       </c>
       <c r="B64" s="6">
-        <v>227</v>
+        <v>52563</v>
       </c>
       <c r="C64" s="8">
-        <v>466</v>
+        <v>107135</v>
       </c>
       <c r="D64" s="10">
-        <v>-239</v>
+        <v>-54572</v>
       </c>
       <c r="E64" s="12">
-        <v>1245</v>
+        <v>292224</v>
       </c>
       <c r="F64" s="14">
-        <v>1062</v>
+        <v>249970</v>
       </c>
       <c r="G64" s="16">
-        <v>184</v>
+        <v>42254</v>
       </c>
       <c r="H64" s="18">
-        <v>716</v>
+        <v>170295</v>
       </c>
       <c r="I64" s="20">
-        <v>651</v>
+        <v>155823</v>
       </c>
       <c r="J64" s="22">
-        <v>64</v>
+        <v>14472</v>
       </c>
       <c r="K64" s="24">
-        <v>122</v>
+        <v>29472</v>
       </c>
       <c r="L64" s="26">
-        <v>112</v>
+        <v>27123</v>
       </c>
       <c r="M64" s="28">
-        <v>10</v>
+        <v>2350</v>
       </c>
       <c r="N64" s="30">
-        <v>69</v>
+        <v>16464</v>
       </c>
       <c r="O64" s="32">
-        <v>65</v>
+        <v>15950</v>
       </c>
       <c r="P64" s="34">
-        <v>4</v>
+        <v>514</v>
       </c>
       <c r="Q64" s="36">
-        <v>157</v>
+        <v>34824</v>
       </c>
       <c r="R64" s="38">
-        <v>141</v>
+        <v>34263</v>
       </c>
       <c r="S64" s="40">
-        <v>15</v>
+        <v>562</v>
       </c>
       <c r="T64" s="42">
-        <v>6</v>
+        <v>1591</v>
       </c>
       <c r="U64" s="44">
-        <v>4</v>
+        <v>878</v>
       </c>
       <c r="V64" s="46">
-        <v>3</v>
+        <v>713</v>
       </c>
       <c r="W64" s="48">
-        <v>3</v>
+        <v>872</v>
       </c>
       <c r="X64" s="50">
-        <v>4</v>
+        <v>802</v>
       </c>
       <c r="Y64" s="52">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z64" s="54">
-        <v>129</v>
+        <v>29961</v>
       </c>
       <c r="AA64" s="56">
-        <v>206</v>
+        <v>47593</v>
       </c>
       <c r="AB64" s="58">
-        <v>-76</v>
+        <v>-17631</v>
       </c>
       <c r="AC64" s="60">
-        <v>201</v>
+        <v>50578</v>
       </c>
       <c r="AD64" s="62">
-        <v>104</v>
+        <v>25601</v>
       </c>
       <c r="AE64" s="64">
-        <v>97</v>
+        <v>24976</v>
       </c>
       <c r="AF64" s="66">
-        <v>27</v>
+        <v>6533</v>
       </c>
       <c r="AG64" s="68">
-        <v>15</v>
+        <v>3615</v>
       </c>
       <c r="AH64" s="70">
-        <v>12</v>
+        <v>2918</v>
       </c>
       <c r="AI64" s="72">
-        <v>18</v>
+        <v>4236</v>
       </c>
       <c r="AJ64" s="74">
-        <v>28</v>
+        <v>6390</v>
       </c>
       <c r="AK64" s="76">
-        <v>-9</v>
+        <v>-2154</v>
       </c>
       <c r="AL64" s="78">
-        <v>2207</v>
+        <v>519318</v>
       </c>
     </row>
   </sheetData>
